--- a/Data_frame/balancos_definitivos/FIGE3.xlsx
+++ b/Data_frame/balancos_definitivos/FIGE3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK80"/>
+  <dimension ref="A1:BI80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,310 +441,300 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2007</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2008</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>30/06/2008</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>30/09/2008</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>31/12/2008</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>31/03/2009</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>30/06/2009</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>30/09/2009</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>31/12/2009</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>31/03/2010</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>30/06/2010</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>30/09/2010</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>31/12/2010</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>31/03/2011</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>30/06/2011</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>30/09/2011</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>31/12/2011</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>31/03/2012</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>30/06/2012</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>30/09/2012</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>31/12/2012</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>31/03/2013</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>30/06/2013</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>30/09/2013</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>31/12/2013</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>31/03/2014</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>30/06/2014</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>30/09/2014</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>31/12/2014</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>31/03/2015</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>30/06/2015</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>30/09/2015</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>31/12/2015</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>31/03/2016</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>30/09/2016</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>31/03/2017</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>30/06/2017</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>30/09/2017</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>31/03/2018</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>30/06/2018</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>30/09/2018</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>31/03/2019</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>30/06/2019</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>30/09/2019</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>31/03/2020</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>30/06/2020</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>30/09/2020</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>31/12/2020</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>31/03/2021</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>30/06/2021</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>31/03/2022</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>30/09/2022</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>30/06/2023</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>30/09/2023</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>31/12/2023</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>31/03/2024</t>
         </is>
@@ -757,189 +747,183 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159679.008</v>
+        <v>157998</v>
       </c>
       <c r="C2" t="n">
-        <v>155212.992</v>
+        <v>158464</v>
       </c>
       <c r="D2" t="n">
-        <v>157998</v>
+        <v>155812.992</v>
       </c>
       <c r="E2" t="n">
-        <v>158464</v>
+        <v>156938</v>
       </c>
       <c r="F2" t="n">
-        <v>155812.992</v>
+        <v>160628.992</v>
       </c>
       <c r="G2" t="n">
-        <v>156938</v>
+        <v>163444.992</v>
       </c>
       <c r="H2" t="n">
-        <v>160628.992</v>
+        <v>128306</v>
       </c>
       <c r="I2" t="n">
-        <v>163444.992</v>
+        <v>129566</v>
       </c>
       <c r="J2" t="n">
-        <v>128306</v>
+        <v>131948</v>
       </c>
       <c r="K2" t="n">
-        <v>129566</v>
+        <v>134835.008</v>
       </c>
       <c r="L2" t="n">
-        <v>131948</v>
+        <v>135036</v>
       </c>
       <c r="M2" t="n">
-        <v>134835.008</v>
+        <v>137578</v>
       </c>
       <c r="N2" t="n">
-        <v>135036</v>
+        <v>140652</v>
       </c>
       <c r="O2" t="n">
-        <v>137578</v>
+        <v>144130</v>
       </c>
       <c r="P2" t="n">
-        <v>140652</v>
+        <v>144635.008</v>
       </c>
       <c r="Q2" t="n">
-        <v>144130</v>
+        <v>147642</v>
       </c>
       <c r="R2" t="n">
-        <v>144635.008</v>
+        <v>150362</v>
       </c>
       <c r="S2" t="n">
-        <v>147642</v>
+        <v>150576.992</v>
       </c>
       <c r="T2" t="n">
-        <v>150362</v>
+        <v>154940.992</v>
       </c>
       <c r="U2" t="n">
-        <v>150576.992</v>
+        <v>153847.008</v>
       </c>
       <c r="V2" t="n">
-        <v>154940.992</v>
+        <v>155556</v>
       </c>
       <c r="W2" t="n">
-        <v>153847.008</v>
+        <v>158632</v>
       </c>
       <c r="X2" t="n">
-        <v>155556</v>
+        <v>160552</v>
       </c>
       <c r="Y2" t="n">
-        <v>158632</v>
+        <v>162955.008</v>
       </c>
       <c r="Z2" t="n">
-        <v>160552</v>
+        <v>165628</v>
       </c>
       <c r="AA2" t="n">
-        <v>162955.008</v>
+        <v>168136.992</v>
       </c>
       <c r="AB2" t="n">
-        <v>165628</v>
+        <v>171180</v>
       </c>
       <c r="AC2" t="n">
-        <v>168136.992</v>
+        <v>174226</v>
       </c>
       <c r="AD2" t="n">
-        <v>171180</v>
+        <v>177606</v>
       </c>
       <c r="AE2" t="n">
-        <v>174226</v>
+        <v>182554</v>
       </c>
       <c r="AF2" t="n">
-        <v>177606</v>
+        <v>187911.008</v>
       </c>
       <c r="AG2" t="n">
-        <v>182554</v>
+        <v>189154</v>
       </c>
       <c r="AH2" t="n">
-        <v>187911.008</v>
+        <v>198459.008</v>
       </c>
       <c r="AI2" t="n">
-        <v>189154</v>
+        <v>203644.992</v>
       </c>
       <c r="AJ2" t="n">
-        <v>198459.008</v>
+        <v>204744.992</v>
       </c>
       <c r="AK2" t="n">
-        <v>203644.992</v>
+        <v>208012.992</v>
       </c>
       <c r="AL2" t="n">
-        <v>204744.992</v>
+        <v>211208</v>
       </c>
       <c r="AM2" t="n">
-        <v>208012.992</v>
+        <v>213902</v>
       </c>
       <c r="AN2" t="n">
-        <v>211208</v>
+        <v>215103.008</v>
       </c>
       <c r="AO2" t="n">
-        <v>213902</v>
+        <v>217136</v>
       </c>
       <c r="AP2" t="n">
-        <v>215103.008</v>
+        <v>219212</v>
       </c>
       <c r="AQ2" t="n">
-        <v>217136</v>
+        <v>220328</v>
       </c>
       <c r="AR2" t="n">
-        <v>219212</v>
+        <v>222520.992</v>
       </c>
       <c r="AS2" t="n">
-        <v>220328</v>
+        <v>224578</v>
       </c>
       <c r="AT2" t="n">
-        <v>222520.992</v>
+        <v>226660</v>
       </c>
       <c r="AU2" t="n">
-        <v>224578</v>
+        <v>228304.992</v>
       </c>
       <c r="AV2" t="n">
-        <v>226660</v>
+        <v>229407.008</v>
       </c>
       <c r="AW2" t="n">
-        <v>228304.992</v>
+        <v>230372</v>
       </c>
       <c r="AX2" t="n">
-        <v>229407.008</v>
+        <v>231032.992</v>
       </c>
       <c r="AY2" t="n">
-        <v>230372</v>
+        <v>231619.008</v>
       </c>
       <c r="AZ2" t="n">
-        <v>231032.992</v>
+        <v>232228</v>
       </c>
       <c r="BA2" t="n">
-        <v>231619.008</v>
+        <v>233299.008</v>
       </c>
       <c r="BB2" t="n">
-        <v>232228</v>
+        <v>241748</v>
       </c>
       <c r="BC2" t="n">
-        <v>233299.008</v>
+        <v>147620</v>
       </c>
       <c r="BD2" t="n">
-        <v>241748</v>
+        <v>150530</v>
       </c>
       <c r="BE2" t="n">
-        <v>147620</v>
+        <v>150924</v>
       </c>
       <c r="BF2" t="n">
-        <v>150530</v>
+        <v>158448.992</v>
       </c>
       <c r="BG2" t="n">
-        <v>150924</v>
+        <v>162587.008</v>
       </c>
       <c r="BH2" t="n">
-        <v>158448.992</v>
+        <v>163470</v>
       </c>
       <c r="BI2" t="n">
-        <v>162587.008</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>163470</v>
-      </c>
-      <c r="BK2" t="n">
         <v>165642</v>
       </c>
     </row>
@@ -950,166 +934,166 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78282</v>
+        <v>79227</v>
       </c>
       <c r="C3" t="n">
-        <v>78510</v>
+        <v>44029</v>
       </c>
       <c r="D3" t="n">
-        <v>79227</v>
+        <v>44982</v>
       </c>
       <c r="E3" t="n">
-        <v>44029</v>
+        <v>43334</v>
       </c>
       <c r="F3" t="n">
-        <v>44982</v>
+        <v>45309</v>
       </c>
       <c r="G3" t="n">
-        <v>43334</v>
+        <v>46127</v>
       </c>
       <c r="H3" t="n">
-        <v>45309</v>
+        <v>13900</v>
       </c>
       <c r="I3" t="n">
-        <v>46127</v>
+        <v>13022</v>
       </c>
       <c r="J3" t="n">
-        <v>13900</v>
+        <v>11168</v>
       </c>
       <c r="K3" t="n">
-        <v>13022</v>
+        <v>9775</v>
       </c>
       <c r="L3" t="n">
-        <v>11168</v>
+        <v>98890</v>
       </c>
       <c r="M3" t="n">
-        <v>9775</v>
+        <v>12823</v>
       </c>
       <c r="N3" t="n">
-        <v>98890</v>
+        <v>13014</v>
       </c>
       <c r="O3" t="n">
-        <v>12823</v>
+        <v>12797</v>
       </c>
       <c r="P3" t="n">
-        <v>13014</v>
+        <v>133853</v>
       </c>
       <c r="Q3" t="n">
-        <v>12797</v>
+        <v>138442</v>
       </c>
       <c r="R3" t="n">
-        <v>133853</v>
+        <v>141766</v>
       </c>
       <c r="S3" t="n">
-        <v>138442</v>
+        <v>141508</v>
       </c>
       <c r="T3" t="n">
-        <v>141766</v>
+        <v>145903.008</v>
       </c>
       <c r="U3" t="n">
-        <v>141508</v>
+        <v>144719.008</v>
       </c>
       <c r="V3" t="n">
-        <v>145903.008</v>
+        <v>146586</v>
       </c>
       <c r="W3" t="n">
-        <v>144719.008</v>
+        <v>150295.008</v>
       </c>
       <c r="X3" t="n">
-        <v>146586</v>
+        <v>84917</v>
       </c>
       <c r="Y3" t="n">
-        <v>150295.008</v>
+        <v>92545</v>
       </c>
       <c r="Z3" t="n">
-        <v>84917</v>
+        <v>91120</v>
       </c>
       <c r="AA3" t="n">
-        <v>92545</v>
+        <v>91609</v>
       </c>
       <c r="AB3" t="n">
-        <v>91120</v>
+        <v>94208</v>
       </c>
       <c r="AC3" t="n">
-        <v>91609</v>
+        <v>97025</v>
       </c>
       <c r="AD3" t="n">
-        <v>94208</v>
+        <v>99994</v>
       </c>
       <c r="AE3" t="n">
-        <v>97025</v>
+        <v>103462</v>
       </c>
       <c r="AF3" t="n">
-        <v>99994</v>
+        <v>107130</v>
       </c>
       <c r="AG3" t="n">
-        <v>103462</v>
+        <v>110744</v>
       </c>
       <c r="AH3" t="n">
-        <v>107130</v>
+        <v>119241</v>
       </c>
       <c r="AI3" t="n">
-        <v>110744</v>
+        <v>123041</v>
       </c>
       <c r="AJ3" t="n">
-        <v>119241</v>
+        <v>127090</v>
       </c>
       <c r="AK3" t="n">
-        <v>123041</v>
+        <v>130580</v>
       </c>
       <c r="AL3" t="n">
-        <v>127090</v>
+        <v>132613</v>
       </c>
       <c r="AM3" t="n">
-        <v>130580</v>
+        <v>135548</v>
       </c>
       <c r="AN3" t="n">
-        <v>132613</v>
+        <v>138136</v>
       </c>
       <c r="AO3" t="n">
-        <v>135548</v>
+        <v>139202</v>
       </c>
       <c r="AP3" t="n">
-        <v>138136</v>
+        <v>58407</v>
       </c>
       <c r="AQ3" t="n">
-        <v>139202</v>
+        <v>3450</v>
       </c>
       <c r="AR3" t="n">
-        <v>58407</v>
+        <v>2567</v>
       </c>
       <c r="AS3" t="n">
-        <v>3450</v>
+        <v>2636</v>
       </c>
       <c r="AT3" t="n">
-        <v>2567</v>
+        <v>2622</v>
       </c>
       <c r="AU3" t="n">
-        <v>2636</v>
+        <v>2088</v>
       </c>
       <c r="AV3" t="n">
-        <v>2622</v>
+        <v>2588</v>
       </c>
       <c r="AW3" t="n">
-        <v>2088</v>
+        <v>83709</v>
       </c>
       <c r="AX3" t="n">
-        <v>2588</v>
+        <v>83829</v>
       </c>
       <c r="AY3" t="n">
-        <v>83709</v>
+        <v>81603</v>
       </c>
       <c r="AZ3" t="n">
-        <v>83829</v>
+        <v>79996</v>
       </c>
       <c r="BA3" t="n">
-        <v>81603</v>
+        <v>5279</v>
       </c>
       <c r="BB3" t="n">
-        <v>79996</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>5279</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
         <v>0</v>
@@ -1127,12 +1111,6 @@
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1143,94 +1121,94 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>24</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45</v>
+      </c>
+      <c r="M4" t="n">
         <v>32</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
+        <v>14</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
+      </c>
+      <c r="P4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>22</v>
+      </c>
+      <c r="S4" t="n">
+        <v>21</v>
+      </c>
+      <c r="T4" t="n">
         <v>24</v>
       </c>
-      <c r="G4" t="n">
-        <v>15</v>
-      </c>
-      <c r="H4" t="n">
-        <v>34</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>24</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14</v>
-      </c>
-      <c r="L4" t="n">
-        <v>38</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7</v>
-      </c>
-      <c r="N4" t="n">
-        <v>45</v>
-      </c>
-      <c r="O4" t="n">
-        <v>32</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>23</v>
-      </c>
-      <c r="R4" t="n">
-        <v>13</v>
-      </c>
-      <c r="S4" t="n">
-        <v>25</v>
-      </c>
-      <c r="T4" t="n">
-        <v>22</v>
-      </c>
       <c r="U4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V4" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="W4" t="n">
         <v>20</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE4" t="n">
         <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>10</v>
       </c>
       <c r="AF4" t="n">
         <v>11</v>
@@ -1242,25 +1220,25 @@
         <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK4" t="n">
         <v>11</v>
       </c>
-      <c r="AK4" t="n">
-        <v>14</v>
-      </c>
       <c r="AL4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AM4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AP4" t="n">
         <v>2</v>
@@ -1299,10 +1277,10 @@
         <v>2</v>
       </c>
       <c r="BB4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
         <v>0</v>
@@ -1320,12 +1298,6 @@
         <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1366,136 +1338,136 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>84034</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>84034</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>124280</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>127603</v>
       </c>
       <c r="R5" t="n">
-        <v>124280</v>
+        <v>130494</v>
       </c>
       <c r="S5" t="n">
-        <v>127603</v>
+        <v>133210</v>
       </c>
       <c r="T5" t="n">
-        <v>130494</v>
+        <v>135524.992</v>
       </c>
       <c r="U5" t="n">
-        <v>133210</v>
+        <v>137772.992</v>
       </c>
       <c r="V5" t="n">
-        <v>135524.992</v>
+        <v>140328.992</v>
       </c>
       <c r="W5" t="n">
-        <v>137772.992</v>
+        <v>143396.992</v>
       </c>
       <c r="X5" t="n">
-        <v>140328.992</v>
+        <v>84509</v>
       </c>
       <c r="Y5" t="n">
-        <v>143396.992</v>
+        <v>86562</v>
       </c>
       <c r="Z5" t="n">
-        <v>84509</v>
+        <v>88829</v>
       </c>
       <c r="AA5" t="n">
-        <v>86562</v>
+        <v>91342</v>
       </c>
       <c r="AB5" t="n">
-        <v>88829</v>
+        <v>93931</v>
       </c>
       <c r="AC5" t="n">
-        <v>91342</v>
+        <v>96662</v>
       </c>
       <c r="AD5" t="n">
-        <v>93931</v>
+        <v>99606</v>
       </c>
       <c r="AE5" t="n">
-        <v>96662</v>
+        <v>103192</v>
       </c>
       <c r="AF5" t="n">
-        <v>99606</v>
+        <v>106881</v>
       </c>
       <c r="AG5" t="n">
-        <v>103192</v>
+        <v>110493</v>
       </c>
       <c r="AH5" t="n">
-        <v>106881</v>
+        <v>118377</v>
       </c>
       <c r="AI5" t="n">
-        <v>110493</v>
+        <v>122194</v>
       </c>
       <c r="AJ5" t="n">
-        <v>118377</v>
+        <v>125929</v>
       </c>
       <c r="AK5" t="n">
-        <v>122194</v>
+        <v>129358</v>
       </c>
       <c r="AL5" t="n">
-        <v>125929</v>
+        <v>132333</v>
       </c>
       <c r="AM5" t="n">
-        <v>129358</v>
+        <v>134690</v>
       </c>
       <c r="AN5" t="n">
-        <v>132333</v>
+        <v>136812</v>
       </c>
       <c r="AO5" t="n">
-        <v>134690</v>
+        <v>138912</v>
       </c>
       <c r="AP5" t="n">
-        <v>136812</v>
+        <v>58144</v>
       </c>
       <c r="AQ5" t="n">
-        <v>138912</v>
+        <v>1</v>
       </c>
       <c r="AR5" t="n">
-        <v>58144</v>
+        <v>1</v>
       </c>
       <c r="AS5" t="n">
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>2340</v>
       </c>
       <c r="AU5" t="n">
-        <v>1</v>
+        <v>2048</v>
       </c>
       <c r="AV5" t="n">
-        <v>2340</v>
+        <v>2585</v>
       </c>
       <c r="AW5" t="n">
-        <v>2048</v>
+        <v>81189</v>
       </c>
       <c r="AX5" t="n">
-        <v>2585</v>
+        <v>81596</v>
       </c>
       <c r="AY5" t="n">
-        <v>81189</v>
+        <v>79609</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81596</v>
+        <v>79993</v>
       </c>
       <c r="BA5" t="n">
-        <v>79609</v>
+        <v>234</v>
       </c>
       <c r="BB5" t="n">
-        <v>79993</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
         <v>0</v>
@@ -1513,12 +1485,6 @@
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,58 +1495,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78214</v>
+        <v>79215</v>
       </c>
       <c r="C6" t="n">
-        <v>78407</v>
+        <v>43994</v>
       </c>
       <c r="D6" t="n">
-        <v>79215</v>
+        <v>44955</v>
       </c>
       <c r="E6" t="n">
-        <v>43994</v>
+        <v>43316</v>
       </c>
       <c r="F6" t="n">
-        <v>44955</v>
+        <v>45272</v>
       </c>
       <c r="G6" t="n">
-        <v>43316</v>
+        <v>46116</v>
       </c>
       <c r="H6" t="n">
-        <v>45272</v>
+        <v>13873</v>
       </c>
       <c r="I6" t="n">
-        <v>46116</v>
+        <v>13005</v>
       </c>
       <c r="J6" t="n">
-        <v>13873</v>
+        <v>11101</v>
       </c>
       <c r="K6" t="n">
-        <v>13005</v>
+        <v>9752</v>
       </c>
       <c r="L6" t="n">
-        <v>11101</v>
+        <v>14808</v>
       </c>
       <c r="M6" t="n">
-        <v>9752</v>
+        <v>12791</v>
       </c>
       <c r="N6" t="n">
-        <v>14808</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>12791</v>
+        <v>12774</v>
       </c>
       <c r="P6" t="n">
-        <v>13000</v>
+        <v>9560</v>
       </c>
       <c r="Q6" t="n">
-        <v>12774</v>
+        <v>10814</v>
       </c>
       <c r="R6" t="n">
-        <v>9560</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>10814</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1706,12 +1672,6 @@
         <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1901,12 +1861,6 @@
       <c r="BI7" t="n">
         <v>0</v>
       </c>
-      <c r="BJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2094,12 +2048,6 @@
       <c r="BI8" t="n">
         <v>0</v>
       </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2156,49 +2104,49 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>8861</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>6416</v>
       </c>
       <c r="T9" t="n">
-        <v>8861</v>
+        <v>8502</v>
       </c>
       <c r="U9" t="n">
-        <v>6416</v>
+        <v>5062</v>
       </c>
       <c r="V9" t="n">
-        <v>8502</v>
+        <v>4253</v>
       </c>
       <c r="W9" t="n">
-        <v>5062</v>
+        <v>4894</v>
       </c>
       <c r="X9" t="n">
-        <v>4253</v>
+        <v>147</v>
       </c>
       <c r="Y9" t="n">
-        <v>4894</v>
+        <v>4632</v>
       </c>
       <c r="Z9" t="n">
-        <v>147</v>
+        <v>893</v>
       </c>
       <c r="AA9" t="n">
-        <v>4632</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>893</v>
+        <v>28</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AD9" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -2207,67 +2155,67 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="AK9" t="n">
+        <v>360</v>
+      </c>
+      <c r="AL9" t="n">
         <v>1</v>
       </c>
-      <c r="AL9" t="n">
-        <v>309</v>
-      </c>
       <c r="AM9" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>1</v>
+        <v>393</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>898</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS9" t="n">
-        <v>898</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AU9" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="AV9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>37</v>
+        <v>2458</v>
       </c>
       <c r="AX9" t="n">
-        <v>0</v>
+        <v>2202</v>
       </c>
       <c r="AY9" t="n">
-        <v>2458</v>
+        <v>1991</v>
       </c>
       <c r="AZ9" t="n">
-        <v>2202</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>1991</v>
+        <v>4983</v>
       </c>
       <c r="BB9" t="n">
         <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>4983</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
         <v>0</v>
@@ -2285,12 +2233,6 @@
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2480,12 +2422,6 @@
       <c r="BI10" t="n">
         <v>0</v>
       </c>
-      <c r="BJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2518,142 +2454,142 @@
         <v>3</v>
       </c>
       <c r="J11" t="n">
+        <v>29</v>
+      </c>
+      <c r="K11" t="n">
+        <v>16</v>
+      </c>
+      <c r="L11" t="n">
         <v>3</v>
       </c>
-      <c r="K11" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2389</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1861</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1852</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1864</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1986</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1984</v>
+      </c>
+      <c r="X11" t="n">
+        <v>241</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1342</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1386</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>254</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>234</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>288</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>277</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>257</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>238</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>238</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>853</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>832</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>838</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>851</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>268</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>846</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>929</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>288</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>261</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>2549</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>2557</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>2621</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>263</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AX11" t="n">
         <v>29</v>
       </c>
-      <c r="M11" t="n">
-        <v>16</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2389</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1861</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1852</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1864</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1986</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1984</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>241</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1342</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1386</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>254</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>234</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>288</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>277</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>257</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>238</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>238</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>853</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>832</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>838</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>851</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>268</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>846</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>929</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>288</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>261</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>2549</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2557</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>2621</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>263</v>
-      </c>
-      <c r="AW11" t="n">
+      <c r="AY11" t="n">
         <v>1</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AZ11" t="n">
         <v>1</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="BA11" t="n">
         <v>60</v>
       </c>
-      <c r="AZ11" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>1</v>
-      </c>
       <c r="BB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
         <v>0</v>
@@ -2671,12 +2607,6 @@
         <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2687,166 +2617,166 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80863</v>
+        <v>78263</v>
       </c>
       <c r="C12" t="n">
-        <v>76197</v>
+        <v>113907</v>
       </c>
       <c r="D12" t="n">
-        <v>78263</v>
+        <v>110630</v>
       </c>
       <c r="E12" t="n">
-        <v>113907</v>
+        <v>113403</v>
       </c>
       <c r="F12" t="n">
-        <v>110630</v>
+        <v>115119</v>
       </c>
       <c r="G12" t="n">
-        <v>113403</v>
+        <v>117117</v>
       </c>
       <c r="H12" t="n">
-        <v>115119</v>
+        <v>114205</v>
       </c>
       <c r="I12" t="n">
-        <v>117117</v>
+        <v>116343</v>
       </c>
       <c r="J12" t="n">
-        <v>114205</v>
+        <v>120579</v>
       </c>
       <c r="K12" t="n">
-        <v>116343</v>
+        <v>124859</v>
       </c>
       <c r="L12" t="n">
-        <v>120579</v>
+        <v>35945</v>
       </c>
       <c r="M12" t="n">
-        <v>124859</v>
+        <v>124755</v>
       </c>
       <c r="N12" t="n">
-        <v>35945</v>
+        <v>127638</v>
       </c>
       <c r="O12" t="n">
-        <v>124755</v>
+        <v>131333</v>
       </c>
       <c r="P12" t="n">
-        <v>127638</v>
+        <v>10782</v>
       </c>
       <c r="Q12" t="n">
-        <v>131333</v>
+        <v>9200</v>
       </c>
       <c r="R12" t="n">
-        <v>10782</v>
+        <v>8596</v>
       </c>
       <c r="S12" t="n">
-        <v>9200</v>
+        <v>9069</v>
       </c>
       <c r="T12" t="n">
-        <v>8596</v>
+        <v>9038</v>
       </c>
       <c r="U12" t="n">
-        <v>9069</v>
+        <v>9128</v>
       </c>
       <c r="V12" t="n">
-        <v>9038</v>
+        <v>8970</v>
       </c>
       <c r="W12" t="n">
-        <v>9128</v>
+        <v>8337</v>
       </c>
       <c r="X12" t="n">
-        <v>8970</v>
+        <v>75635</v>
       </c>
       <c r="Y12" t="n">
-        <v>8337</v>
+        <v>70410</v>
       </c>
       <c r="Z12" t="n">
-        <v>75635</v>
+        <v>74508</v>
       </c>
       <c r="AA12" t="n">
-        <v>70410</v>
+        <v>76528</v>
       </c>
       <c r="AB12" t="n">
-        <v>74508</v>
+        <v>76972</v>
       </c>
       <c r="AC12" t="n">
-        <v>76528</v>
+        <v>77201</v>
       </c>
       <c r="AD12" t="n">
-        <v>76972</v>
+        <v>77612</v>
       </c>
       <c r="AE12" t="n">
-        <v>77201</v>
+        <v>79092</v>
       </c>
       <c r="AF12" t="n">
-        <v>77612</v>
+        <v>80781</v>
       </c>
       <c r="AG12" t="n">
-        <v>79092</v>
+        <v>78410</v>
       </c>
       <c r="AH12" t="n">
-        <v>80781</v>
+        <v>79218</v>
       </c>
       <c r="AI12" t="n">
-        <v>78410</v>
+        <v>80604</v>
       </c>
       <c r="AJ12" t="n">
-        <v>79218</v>
+        <v>77655</v>
       </c>
       <c r="AK12" t="n">
-        <v>80604</v>
+        <v>77433</v>
       </c>
       <c r="AL12" t="n">
-        <v>77655</v>
+        <v>78595</v>
       </c>
       <c r="AM12" t="n">
-        <v>77433</v>
+        <v>78354</v>
       </c>
       <c r="AN12" t="n">
-        <v>78595</v>
+        <v>76967</v>
       </c>
       <c r="AO12" t="n">
-        <v>78354</v>
+        <v>77934</v>
       </c>
       <c r="AP12" t="n">
-        <v>76967</v>
+        <v>160804.992</v>
       </c>
       <c r="AQ12" t="n">
-        <v>77934</v>
+        <v>216878</v>
       </c>
       <c r="AR12" t="n">
-        <v>160804.992</v>
+        <v>219954</v>
       </c>
       <c r="AS12" t="n">
-        <v>216878</v>
+        <v>221942</v>
       </c>
       <c r="AT12" t="n">
-        <v>219954</v>
+        <v>224038</v>
       </c>
       <c r="AU12" t="n">
-        <v>221942</v>
+        <v>226216.992</v>
       </c>
       <c r="AV12" t="n">
-        <v>224038</v>
+        <v>226819.008</v>
       </c>
       <c r="AW12" t="n">
-        <v>226216.992</v>
+        <v>146663.008</v>
       </c>
       <c r="AX12" t="n">
-        <v>226819.008</v>
+        <v>147204</v>
       </c>
       <c r="AY12" t="n">
-        <v>146663.008</v>
+        <v>150016</v>
       </c>
       <c r="AZ12" t="n">
-        <v>147204</v>
+        <v>152232</v>
       </c>
       <c r="BA12" t="n">
-        <v>150016</v>
+        <v>228020</v>
       </c>
       <c r="BB12" t="n">
-        <v>152232</v>
+        <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>228020</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
         <v>0</v>
@@ -2864,12 +2794,6 @@
         <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2910,97 +2834,97 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>35945</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>122045</v>
       </c>
       <c r="N13" t="n">
-        <v>35945</v>
+        <v>125126</v>
       </c>
       <c r="O13" t="n">
-        <v>122045</v>
+        <v>128830</v>
       </c>
       <c r="P13" t="n">
-        <v>125126</v>
+        <v>5643</v>
       </c>
       <c r="Q13" t="n">
-        <v>128830</v>
+        <v>5591</v>
       </c>
       <c r="R13" t="n">
-        <v>5643</v>
+        <v>5541</v>
       </c>
       <c r="S13" t="n">
-        <v>5591</v>
+        <v>5564</v>
       </c>
       <c r="T13" t="n">
-        <v>5541</v>
+        <v>5177</v>
       </c>
       <c r="U13" t="n">
-        <v>5564</v>
+        <v>5265</v>
       </c>
       <c r="V13" t="n">
-        <v>5177</v>
+        <v>5105</v>
       </c>
       <c r="W13" t="n">
-        <v>5265</v>
+        <v>5162</v>
       </c>
       <c r="X13" t="n">
-        <v>5105</v>
+        <v>65737</v>
       </c>
       <c r="Y13" t="n">
-        <v>5162</v>
+        <v>67206</v>
       </c>
       <c r="Z13" t="n">
-        <v>65737</v>
+        <v>68774</v>
       </c>
       <c r="AA13" t="n">
-        <v>67206</v>
+        <v>70695</v>
       </c>
       <c r="AB13" t="n">
-        <v>68774</v>
+        <v>72602</v>
       </c>
       <c r="AC13" t="n">
-        <v>70695</v>
+        <v>71983</v>
       </c>
       <c r="AD13" t="n">
-        <v>72602</v>
+        <v>73586</v>
       </c>
       <c r="AE13" t="n">
-        <v>71983</v>
+        <v>75141</v>
       </c>
       <c r="AF13" t="n">
-        <v>73586</v>
+        <v>77004</v>
       </c>
       <c r="AG13" t="n">
-        <v>75141</v>
+        <v>72917</v>
       </c>
       <c r="AH13" t="n">
-        <v>77004</v>
+        <v>75970</v>
       </c>
       <c r="AI13" t="n">
-        <v>72917</v>
+        <v>77332</v>
       </c>
       <c r="AJ13" t="n">
-        <v>75970</v>
+        <v>72938</v>
       </c>
       <c r="AK13" t="n">
-        <v>77332</v>
+        <v>73806</v>
       </c>
       <c r="AL13" t="n">
-        <v>72938</v>
+        <v>74671</v>
       </c>
       <c r="AM13" t="n">
-        <v>73806</v>
+        <v>75033</v>
       </c>
       <c r="AN13" t="n">
-        <v>74671</v>
+        <v>71376</v>
       </c>
       <c r="AO13" t="n">
-        <v>75033</v>
+        <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>71376</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
@@ -3009,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>143224.992</v>
       </c>
       <c r="AT13" t="n">
         <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>143224.992</v>
+        <v>0</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
@@ -3057,12 +2981,6 @@
         <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,22 +3108,22 @@
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>71880</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>155543.008</v>
       </c>
       <c r="AQ14" t="n">
-        <v>71880</v>
+        <v>142275.008</v>
       </c>
       <c r="AR14" t="n">
-        <v>155543.008</v>
+        <v>141684</v>
       </c>
       <c r="AS14" t="n">
-        <v>142275.008</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>141684</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3250,12 +3168,6 @@
         <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3266,58 +3178,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3445</v>
+        <v>3246</v>
       </c>
       <c r="C15" t="n">
-        <v>3236</v>
+        <v>2785</v>
       </c>
       <c r="D15" t="n">
-        <v>3246</v>
+        <v>2960</v>
       </c>
       <c r="E15" t="n">
-        <v>2785</v>
+        <v>2979</v>
       </c>
       <c r="F15" t="n">
-        <v>2960</v>
+        <v>2981</v>
       </c>
       <c r="G15" t="n">
-        <v>2979</v>
+        <v>2560</v>
       </c>
       <c r="H15" t="n">
-        <v>2981</v>
+        <v>2210</v>
       </c>
       <c r="I15" t="n">
-        <v>2560</v>
+        <v>2210</v>
       </c>
       <c r="J15" t="n">
-        <v>2210</v>
+        <v>3252</v>
       </c>
       <c r="K15" t="n">
-        <v>2210</v>
+        <v>4482</v>
       </c>
       <c r="L15" t="n">
-        <v>3252</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>4482</v>
+        <v>2710</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2196</v>
       </c>
       <c r="O15" t="n">
-        <v>2710</v>
+        <v>2203</v>
       </c>
       <c r="P15" t="n">
-        <v>2196</v>
+        <v>4320</v>
       </c>
       <c r="Q15" t="n">
-        <v>2203</v>
+        <v>3310</v>
       </c>
       <c r="R15" t="n">
-        <v>4320</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>3310</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -3389,43 +3301,43 @@
         <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>72889</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>73991</v>
       </c>
       <c r="AS15" t="n">
-        <v>72889</v>
+        <v>75142</v>
       </c>
       <c r="AT15" t="n">
-        <v>73991</v>
+        <v>223124</v>
       </c>
       <c r="AU15" t="n">
-        <v>75142</v>
+        <v>225855.008</v>
       </c>
       <c r="AV15" t="n">
-        <v>223124</v>
+        <v>224064.992</v>
       </c>
       <c r="AW15" t="n">
-        <v>225855.008</v>
+        <v>146663.008</v>
       </c>
       <c r="AX15" t="n">
-        <v>224064.992</v>
+        <v>147204</v>
       </c>
       <c r="AY15" t="n">
-        <v>146663.008</v>
+        <v>150016</v>
       </c>
       <c r="AZ15" t="n">
-        <v>147204</v>
+        <v>149160.992</v>
       </c>
       <c r="BA15" t="n">
-        <v>150016</v>
+        <v>224792.992</v>
       </c>
       <c r="BB15" t="n">
-        <v>149160.992</v>
+        <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>224792.992</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
         <v>0</v>
@@ -3443,12 +3355,6 @@
         <v>0</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3638,12 +3544,6 @@
       <c r="BI16" t="n">
         <v>0</v>
       </c>
-      <c r="BJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3831,12 +3731,6 @@
       <c r="BI17" t="n">
         <v>0</v>
       </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3881,37 +3775,37 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P18" t="n">
-        <v>316</v>
+        <v>819</v>
       </c>
       <c r="Q18" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R18" t="n">
-        <v>819</v>
+        <v>301</v>
       </c>
       <c r="S18" t="n">
-        <v>299</v>
+        <v>724</v>
       </c>
       <c r="T18" t="n">
-        <v>301</v>
+        <v>716</v>
       </c>
       <c r="U18" t="n">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="V18" t="n">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="W18" t="n">
-        <v>709</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>701</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -4022,12 +3916,6 @@
         <v>0</v>
       </c>
       <c r="BI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,40 +4052,40 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>2359</v>
       </c>
       <c r="AS19" t="n">
-        <v>0</v>
+        <v>1641</v>
       </c>
       <c r="AT19" t="n">
-        <v>2359</v>
+        <v>914</v>
       </c>
       <c r="AU19" t="n">
-        <v>1641</v>
+        <v>362</v>
       </c>
       <c r="AV19" t="n">
-        <v>914</v>
+        <v>2754</v>
       </c>
       <c r="AW19" t="n">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>2754</v>
+        <v>0</v>
       </c>
       <c r="AY19" t="n">
         <v>0</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0</v>
+        <v>3071</v>
       </c>
       <c r="BA19" t="n">
-        <v>0</v>
+        <v>3227</v>
       </c>
       <c r="BB19" t="n">
-        <v>3071</v>
+        <v>0</v>
       </c>
       <c r="BC19" t="n">
-        <v>3227</v>
+        <v>0</v>
       </c>
       <c r="BD19" t="n">
         <v>0</v>
@@ -4215,12 +4103,6 @@
         <v>0</v>
       </c>
       <c r="BI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4410,12 +4292,6 @@
       <c r="BI20" t="n">
         <v>0</v>
       </c>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4424,40 +4300,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77418</v>
+        <v>75017</v>
       </c>
       <c r="C21" t="n">
-        <v>72961</v>
+        <v>111122</v>
       </c>
       <c r="D21" t="n">
-        <v>75017</v>
+        <v>107670</v>
       </c>
       <c r="E21" t="n">
-        <v>111122</v>
+        <v>110424</v>
       </c>
       <c r="F21" t="n">
-        <v>107670</v>
+        <v>112138</v>
       </c>
       <c r="G21" t="n">
-        <v>110424</v>
+        <v>114557</v>
       </c>
       <c r="H21" t="n">
-        <v>112138</v>
+        <v>111995</v>
       </c>
       <c r="I21" t="n">
-        <v>114557</v>
+        <v>114133</v>
       </c>
       <c r="J21" t="n">
-        <v>111995</v>
+        <v>117327</v>
       </c>
       <c r="K21" t="n">
-        <v>114133</v>
+        <v>120377</v>
       </c>
       <c r="L21" t="n">
-        <v>117327</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>120377</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -4472,79 +4348,79 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>2754</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2781</v>
       </c>
       <c r="T21" t="n">
-        <v>2754</v>
+        <v>3145</v>
       </c>
       <c r="U21" t="n">
-        <v>2781</v>
+        <v>3154</v>
       </c>
       <c r="V21" t="n">
-        <v>3145</v>
+        <v>3164</v>
       </c>
       <c r="W21" t="n">
-        <v>3154</v>
+        <v>3175</v>
       </c>
       <c r="X21" t="n">
-        <v>3164</v>
+        <v>9898</v>
       </c>
       <c r="Y21" t="n">
-        <v>3175</v>
+        <v>3204</v>
       </c>
       <c r="Z21" t="n">
-        <v>9898</v>
+        <v>5734</v>
       </c>
       <c r="AA21" t="n">
-        <v>3204</v>
+        <v>5833</v>
       </c>
       <c r="AB21" t="n">
-        <v>5734</v>
+        <v>4370</v>
       </c>
       <c r="AC21" t="n">
-        <v>5833</v>
+        <v>5218</v>
       </c>
       <c r="AD21" t="n">
-        <v>4370</v>
+        <v>4026</v>
       </c>
       <c r="AE21" t="n">
-        <v>5218</v>
+        <v>3951</v>
       </c>
       <c r="AF21" t="n">
-        <v>4026</v>
+        <v>3777</v>
       </c>
       <c r="AG21" t="n">
-        <v>3951</v>
+        <v>5493</v>
       </c>
       <c r="AH21" t="n">
-        <v>3777</v>
+        <v>3248</v>
       </c>
       <c r="AI21" t="n">
-        <v>5493</v>
+        <v>3272</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3248</v>
+        <v>4717</v>
       </c>
       <c r="AK21" t="n">
-        <v>3272</v>
+        <v>3627</v>
       </c>
       <c r="AL21" t="n">
-        <v>4717</v>
+        <v>3924</v>
       </c>
       <c r="AM21" t="n">
-        <v>3627</v>
+        <v>3321</v>
       </c>
       <c r="AN21" t="n">
-        <v>3924</v>
+        <v>5591</v>
       </c>
       <c r="AO21" t="n">
-        <v>3321</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>5591</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
@@ -4601,12 +4477,6 @@
         <v>0</v>
       </c>
       <c r="BI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4617,16 +4487,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="C22" t="n">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="D22" t="n">
-        <v>508</v>
+        <v>201</v>
       </c>
       <c r="E22" t="n">
-        <v>528</v>
+        <v>201</v>
       </c>
       <c r="F22" t="n">
         <v>201</v>
@@ -4650,10 +4520,10 @@
         <v>201</v>
       </c>
       <c r="M22" t="n">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -4794,12 +4664,6 @@
         <v>0</v>
       </c>
       <c r="BI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4989,12 +4853,6 @@
       <c r="BI23" t="n">
         <v>0</v>
       </c>
-      <c r="BJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5182,12 +5040,6 @@
       <c r="BI24" t="n">
         <v>0</v>
       </c>
-      <c r="BJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5375,12 +5227,6 @@
       <c r="BI25" t="n">
         <v>0</v>
       </c>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5389,166 +5235,166 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>159679.008</v>
+        <v>157998</v>
       </c>
       <c r="C26" t="n">
-        <v>155212.992</v>
+        <v>158464</v>
       </c>
       <c r="D26" t="n">
-        <v>157998</v>
+        <v>155812.992</v>
       </c>
       <c r="E26" t="n">
-        <v>158464</v>
+        <v>156938</v>
       </c>
       <c r="F26" t="n">
-        <v>155812.992</v>
+        <v>160628.992</v>
       </c>
       <c r="G26" t="n">
-        <v>156938</v>
+        <v>163444.992</v>
       </c>
       <c r="H26" t="n">
-        <v>160628.992</v>
+        <v>128306</v>
       </c>
       <c r="I26" t="n">
-        <v>163444.992</v>
+        <v>129566</v>
       </c>
       <c r="J26" t="n">
-        <v>128306</v>
+        <v>131948</v>
       </c>
       <c r="K26" t="n">
-        <v>129566</v>
+        <v>134835.008</v>
       </c>
       <c r="L26" t="n">
-        <v>131948</v>
+        <v>135036</v>
       </c>
       <c r="M26" t="n">
-        <v>134835.008</v>
+        <v>137578</v>
       </c>
       <c r="N26" t="n">
-        <v>135036</v>
+        <v>140652</v>
       </c>
       <c r="O26" t="n">
-        <v>137578</v>
+        <v>144130</v>
       </c>
       <c r="P26" t="n">
-        <v>140652</v>
+        <v>144635.008</v>
       </c>
       <c r="Q26" t="n">
-        <v>144130</v>
+        <v>147642</v>
       </c>
       <c r="R26" t="n">
-        <v>144635.008</v>
+        <v>150362</v>
       </c>
       <c r="S26" t="n">
-        <v>147642</v>
+        <v>150576.992</v>
       </c>
       <c r="T26" t="n">
-        <v>150362</v>
+        <v>154940.992</v>
       </c>
       <c r="U26" t="n">
-        <v>150576.992</v>
+        <v>153847.008</v>
       </c>
       <c r="V26" t="n">
-        <v>154940.992</v>
+        <v>155556</v>
       </c>
       <c r="W26" t="n">
-        <v>153847.008</v>
+        <v>158632</v>
       </c>
       <c r="X26" t="n">
-        <v>155556</v>
+        <v>160552</v>
       </c>
       <c r="Y26" t="n">
-        <v>158632</v>
+        <v>162955.008</v>
       </c>
       <c r="Z26" t="n">
-        <v>160552</v>
+        <v>165628</v>
       </c>
       <c r="AA26" t="n">
-        <v>162955.008</v>
+        <v>168136.992</v>
       </c>
       <c r="AB26" t="n">
-        <v>165628</v>
+        <v>171180</v>
       </c>
       <c r="AC26" t="n">
-        <v>168136.992</v>
+        <v>174226</v>
       </c>
       <c r="AD26" t="n">
-        <v>171180</v>
+        <v>177606</v>
       </c>
       <c r="AE26" t="n">
-        <v>174226</v>
+        <v>182554</v>
       </c>
       <c r="AF26" t="n">
-        <v>177606</v>
+        <v>187911.008</v>
       </c>
       <c r="AG26" t="n">
-        <v>182554</v>
+        <v>189154</v>
       </c>
       <c r="AH26" t="n">
-        <v>187911.008</v>
+        <v>198459.008</v>
       </c>
       <c r="AI26" t="n">
-        <v>189154</v>
+        <v>203644.992</v>
       </c>
       <c r="AJ26" t="n">
-        <v>198459.008</v>
+        <v>204744.992</v>
       </c>
       <c r="AK26" t="n">
-        <v>203644.992</v>
+        <v>208012.992</v>
       </c>
       <c r="AL26" t="n">
-        <v>204744.992</v>
+        <v>211208</v>
       </c>
       <c r="AM26" t="n">
-        <v>208012.992</v>
+        <v>213902</v>
       </c>
       <c r="AN26" t="n">
-        <v>211208</v>
+        <v>215103.008</v>
       </c>
       <c r="AO26" t="n">
-        <v>213902</v>
+        <v>217136</v>
       </c>
       <c r="AP26" t="n">
-        <v>215103.008</v>
+        <v>219212</v>
       </c>
       <c r="AQ26" t="n">
-        <v>217136</v>
+        <v>220328</v>
       </c>
       <c r="AR26" t="n">
-        <v>219212</v>
+        <v>222520.992</v>
       </c>
       <c r="AS26" t="n">
-        <v>220328</v>
+        <v>224578</v>
       </c>
       <c r="AT26" t="n">
-        <v>222520.992</v>
+        <v>226660</v>
       </c>
       <c r="AU26" t="n">
-        <v>224578</v>
+        <v>228304.992</v>
       </c>
       <c r="AV26" t="n">
-        <v>226660</v>
+        <v>229407.008</v>
       </c>
       <c r="AW26" t="n">
-        <v>228304.992</v>
+        <v>230372</v>
       </c>
       <c r="AX26" t="n">
-        <v>229407.008</v>
+        <v>231032.992</v>
       </c>
       <c r="AY26" t="n">
-        <v>230372</v>
+        <v>231619.008</v>
       </c>
       <c r="AZ26" t="n">
-        <v>231032.992</v>
+        <v>232228</v>
       </c>
       <c r="BA26" t="n">
-        <v>231619.008</v>
+        <v>233299.008</v>
       </c>
       <c r="BB26" t="n">
-        <v>232228</v>
+        <v>0</v>
       </c>
       <c r="BC26" t="n">
-        <v>233299.008</v>
+        <v>0</v>
       </c>
       <c r="BD26" t="n">
         <v>0</v>
@@ -5566,12 +5412,6 @@
         <v>0</v>
       </c>
       <c r="BI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,166 +5422,166 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>37033</v>
+        <v>32298</v>
       </c>
       <c r="C27" t="n">
-        <v>31175</v>
+        <v>33766</v>
       </c>
       <c r="D27" t="n">
-        <v>32298</v>
+        <v>32760</v>
       </c>
       <c r="E27" t="n">
-        <v>33766</v>
+        <v>31745</v>
       </c>
       <c r="F27" t="n">
-        <v>32760</v>
+        <v>33432</v>
       </c>
       <c r="G27" t="n">
-        <v>31745</v>
+        <v>34358</v>
       </c>
       <c r="H27" t="n">
-        <v>33432</v>
+        <v>3395</v>
       </c>
       <c r="I27" t="n">
-        <v>34358</v>
+        <v>803</v>
       </c>
       <c r="J27" t="n">
-        <v>3395</v>
+        <v>1451</v>
       </c>
       <c r="K27" t="n">
-        <v>803</v>
+        <v>2235</v>
       </c>
       <c r="L27" t="n">
-        <v>1451</v>
+        <v>2465</v>
       </c>
       <c r="M27" t="n">
-        <v>2235</v>
+        <v>694</v>
       </c>
       <c r="N27" t="n">
-        <v>2465</v>
+        <v>1406</v>
       </c>
       <c r="O27" t="n">
-        <v>694</v>
+        <v>2334</v>
       </c>
       <c r="P27" t="n">
-        <v>1406</v>
+        <v>148</v>
       </c>
       <c r="Q27" t="n">
-        <v>2334</v>
+        <v>1159</v>
       </c>
       <c r="R27" t="n">
-        <v>148</v>
+        <v>1835</v>
       </c>
       <c r="S27" t="n">
-        <v>1159</v>
+        <v>150</v>
       </c>
       <c r="T27" t="n">
-        <v>1835</v>
+        <v>2927</v>
       </c>
       <c r="U27" t="n">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="V27" t="n">
-        <v>2927</v>
+        <v>117</v>
       </c>
       <c r="W27" t="n">
+        <v>45</v>
+      </c>
+      <c r="X27" t="n">
+        <v>119</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>121</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>117</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>153</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1248</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>2738</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>284</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1497</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>3709</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>294</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>285</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>522</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1077</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>223</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>213</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>211</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>222</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>199</v>
+      </c>
+      <c r="AS27" t="n">
         <v>204</v>
       </c>
-      <c r="X27" t="n">
-        <v>117</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>119</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>121</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>117</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>151</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>153</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1248</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>2738</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>284</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1497</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>3709</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>294</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>285</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>522</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1077</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>223</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>213</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>211</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>222</v>
-      </c>
       <c r="AT27" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AU27" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AV27" t="n">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="AW27" t="n">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AX27" t="n">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="AY27" t="n">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="AZ27" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BA27" t="n">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="BB27" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="BC27" t="n">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="BD27" t="n">
         <v>0</v>
@@ -5759,12 +5599,6 @@
         <v>0</v>
       </c>
       <c r="BI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5805,112 +5639,112 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="N28" t="n">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="R28" t="n">
         <v>137</v>
       </c>
       <c r="S28" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T28" t="n">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="U28" t="n">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="V28" t="n">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="W28" t="n">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="X28" t="n">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="Y28" t="n">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="Z28" t="n">
         <v>116</v>
       </c>
       <c r="AA28" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="AD28" t="n">
         <v>149</v>
       </c>
       <c r="AE28" t="n">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="AF28" t="n">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="AG28" t="n">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="AH28" t="n">
         <v>181</v>
       </c>
       <c r="AI28" t="n">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="AJ28" t="n">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="AK28" t="n">
         <v>197</v>
       </c>
       <c r="AL28" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM28" t="n">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="AN28" t="n">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="AO28" t="n">
         <v>164</v>
       </c>
       <c r="AP28" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AQ28" t="n">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="AR28" t="n">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="AS28" t="n">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="AT28" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="AU28" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="AV28" t="n">
         <v>0</v>
@@ -5952,12 +5786,6 @@
         <v>0</v>
       </c>
       <c r="BI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6064,13 +5892,13 @@
         <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AI29" t="n">
         <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
@@ -6145,12 +5973,6 @@
         <v>0</v>
       </c>
       <c r="BI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6161,166 +5983,166 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36992</v>
+        <v>32292</v>
       </c>
       <c r="C30" t="n">
-        <v>31138</v>
+        <v>33758</v>
       </c>
       <c r="D30" t="n">
-        <v>32292</v>
+        <v>32707</v>
       </c>
       <c r="E30" t="n">
-        <v>33758</v>
+        <v>31701</v>
       </c>
       <c r="F30" t="n">
-        <v>32707</v>
+        <v>33396</v>
       </c>
       <c r="G30" t="n">
-        <v>31701</v>
+        <v>34350</v>
       </c>
       <c r="H30" t="n">
-        <v>33396</v>
+        <v>3347</v>
       </c>
       <c r="I30" t="n">
-        <v>34350</v>
+        <v>795</v>
       </c>
       <c r="J30" t="n">
-        <v>3347</v>
+        <v>1434</v>
       </c>
       <c r="K30" t="n">
-        <v>795</v>
+        <v>2219</v>
       </c>
       <c r="L30" t="n">
-        <v>1434</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>2219</v>
+        <v>416</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>979</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1683</v>
       </c>
       <c r="S30" t="n">
-        <v>979</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1683</v>
+        <v>2793</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="V30" t="n">
-        <v>2793</v>
+        <v>57</v>
       </c>
       <c r="W30" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>2555</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1276</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>3510</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>86</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>321</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>911</v>
+      </c>
+      <c r="AN30" t="n">
         <v>57</v>
       </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1200</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>2555</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1276</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>3510</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>86</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>321</v>
-      </c>
       <c r="AO30" t="n">
-        <v>911</v>
+        <v>49</v>
       </c>
       <c r="AP30" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="AQ30" t="n">
+        <v>48</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>48</v>
+      </c>
+      <c r="AS30" t="n">
         <v>49</v>
       </c>
-      <c r="AR30" t="n">
-        <v>46</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>48</v>
-      </c>
       <c r="AT30" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AU30" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AV30" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="AW30" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AX30" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="AY30" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA30" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="BB30" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BC30" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BD30" t="n">
         <v>0</v>
@@ -6338,12 +6160,6 @@
         <v>0</v>
       </c>
       <c r="BI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6533,12 +6349,6 @@
       <c r="BI31" t="n">
         <v>0</v>
       </c>
-      <c r="BJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6726,12 +6536,6 @@
       <c r="BI32" t="n">
         <v>0</v>
       </c>
-      <c r="BJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6815,13 +6619,13 @@
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -6917,12 +6721,6 @@
         <v>0</v>
       </c>
       <c r="BI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6933,61 +6731,61 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E34" t="n">
+        <v>44</v>
+      </c>
+      <c r="F34" t="n">
+        <v>36</v>
+      </c>
+      <c r="G34" t="n">
         <v>8</v>
       </c>
-      <c r="F34" t="n">
-        <v>53</v>
-      </c>
-      <c r="G34" t="n">
-        <v>44</v>
-      </c>
       <c r="H34" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I34" t="n">
         <v>8</v>
       </c>
       <c r="J34" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="K34" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L34" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M34" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="R34" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S34" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -7008,22 +6806,22 @@
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
         <v>0</v>
@@ -7065,34 +6863,34 @@
         <v>0</v>
       </c>
       <c r="AT34" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="AU34" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="AV34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AW34" t="n">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="AX34" t="n">
         <v>126</v>
       </c>
       <c r="AY34" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AZ34" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="BA34" t="n">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="BB34" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="BC34" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="BD34" t="n">
         <v>0</v>
@@ -7110,12 +6908,6 @@
         <v>0</v>
       </c>
       <c r="BI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7156,31 +6948,31 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>2184</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2184</v>
+        <v>1224</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>2141</v>
       </c>
       <c r="P35" t="n">
-        <v>1224</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>2141</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U35" t="n">
         <v>15</v>
@@ -7189,10 +6981,10 @@
         <v>15</v>
       </c>
       <c r="W35" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -7204,10 +6996,10 @@
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD35" t="n">
         <v>2</v>
@@ -7240,10 +7032,10 @@
         <v>2</v>
       </c>
       <c r="AN35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP35" t="n">
         <v>0</v>
@@ -7303,12 +7095,6 @@
         <v>0</v>
       </c>
       <c r="BI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7498,12 +7284,6 @@
       <c r="BI36" t="n">
         <v>0</v>
       </c>
-      <c r="BJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7515,163 +7295,163 @@
         <v>2127</v>
       </c>
       <c r="C37" t="n">
-        <v>2116</v>
+        <v>2138</v>
       </c>
       <c r="D37" t="n">
-        <v>2127</v>
+        <v>2151</v>
       </c>
       <c r="E37" t="n">
-        <v>2138</v>
+        <v>2159</v>
       </c>
       <c r="F37" t="n">
-        <v>2151</v>
+        <v>2163</v>
       </c>
       <c r="G37" t="n">
-        <v>2159</v>
+        <v>2166</v>
       </c>
       <c r="H37" t="n">
-        <v>2163</v>
+        <v>217</v>
       </c>
       <c r="I37" t="n">
-        <v>2166</v>
+        <v>2180</v>
       </c>
       <c r="J37" t="n">
-        <v>217</v>
+        <v>2173</v>
       </c>
       <c r="K37" t="n">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="L37" t="n">
-        <v>2173</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2179</v>
+        <v>2189</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>2196</v>
       </c>
       <c r="O37" t="n">
-        <v>2189</v>
+        <v>2203</v>
       </c>
       <c r="P37" t="n">
-        <v>2196</v>
+        <v>2412</v>
       </c>
       <c r="Q37" t="n">
-        <v>2203</v>
+        <v>2222</v>
       </c>
       <c r="R37" t="n">
-        <v>2412</v>
+        <v>2221</v>
       </c>
       <c r="S37" t="n">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="T37" t="n">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="U37" t="n">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="V37" t="n">
         <v>2220</v>
       </c>
       <c r="W37" t="n">
-        <v>2220</v>
+        <v>3247</v>
       </c>
       <c r="X37" t="n">
-        <v>2220</v>
+        <v>3194</v>
       </c>
       <c r="Y37" t="n">
-        <v>3247</v>
+        <v>3206</v>
       </c>
       <c r="Z37" t="n">
-        <v>3194</v>
+        <v>3216</v>
       </c>
       <c r="AA37" t="n">
-        <v>3206</v>
+        <v>3091</v>
       </c>
       <c r="AB37" t="n">
-        <v>3216</v>
+        <v>3094</v>
       </c>
       <c r="AC37" t="n">
-        <v>3091</v>
+        <v>3105</v>
       </c>
       <c r="AD37" t="n">
-        <v>3094</v>
+        <v>3122</v>
       </c>
       <c r="AE37" t="n">
-        <v>3105</v>
+        <v>3146</v>
       </c>
       <c r="AF37" t="n">
-        <v>3122</v>
+        <v>3132</v>
       </c>
       <c r="AG37" t="n">
-        <v>3146</v>
+        <v>3148</v>
       </c>
       <c r="AH37" t="n">
-        <v>3132</v>
+        <v>3188</v>
       </c>
       <c r="AI37" t="n">
-        <v>3148</v>
+        <v>2329</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3188</v>
+        <v>3221</v>
       </c>
       <c r="AK37" t="n">
-        <v>2329</v>
+        <v>3228</v>
       </c>
       <c r="AL37" t="n">
-        <v>3221</v>
+        <v>3239</v>
       </c>
       <c r="AM37" t="n">
-        <v>3228</v>
+        <v>3241</v>
       </c>
       <c r="AN37" t="n">
-        <v>3239</v>
+        <v>3246</v>
       </c>
       <c r="AO37" t="n">
-        <v>3241</v>
+        <v>3280</v>
       </c>
       <c r="AP37" t="n">
-        <v>3246</v>
+        <v>3277</v>
       </c>
       <c r="AQ37" t="n">
-        <v>3280</v>
+        <v>80</v>
       </c>
       <c r="AR37" t="n">
-        <v>3277</v>
+        <v>150</v>
       </c>
       <c r="AS37" t="n">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AT37" t="n">
-        <v>150</v>
+        <v>382</v>
       </c>
       <c r="AU37" t="n">
-        <v>215</v>
+        <v>386</v>
       </c>
       <c r="AV37" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="AW37" t="n">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AX37" t="n">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AY37" t="n">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AZ37" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="BA37" t="n">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="BB37" t="n">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="BC37" t="n">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="BD37" t="n">
         <v>0</v>
@@ -7689,12 +7469,6 @@
         <v>0</v>
       </c>
       <c r="BI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7884,12 +7658,6 @@
       <c r="BI38" t="n">
         <v>0</v>
       </c>
-      <c r="BJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK38" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8077,12 +7845,6 @@
       <c r="BI39" t="n">
         <v>0</v>
       </c>
-      <c r="BJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8094,37 +7856,37 @@
         <v>2127</v>
       </c>
       <c r="C40" t="n">
-        <v>2116</v>
+        <v>2138</v>
       </c>
       <c r="D40" t="n">
-        <v>2127</v>
+        <v>2151</v>
       </c>
       <c r="E40" t="n">
-        <v>2138</v>
+        <v>2159</v>
       </c>
       <c r="F40" t="n">
-        <v>2151</v>
+        <v>2163</v>
       </c>
       <c r="G40" t="n">
-        <v>2159</v>
+        <v>2166</v>
       </c>
       <c r="H40" t="n">
-        <v>2163</v>
+        <v>217</v>
       </c>
       <c r="I40" t="n">
-        <v>2166</v>
+        <v>2180</v>
       </c>
       <c r="J40" t="n">
-        <v>217</v>
+        <v>2173</v>
       </c>
       <c r="K40" t="n">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="L40" t="n">
-        <v>2173</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2179</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -8136,16 +7898,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -8268,12 +8030,6 @@
         <v>0</v>
       </c>
       <c r="BI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8347,103 +8103,103 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="Y41" t="n">
-        <v>1010</v>
+        <v>961</v>
       </c>
       <c r="Z41" t="n">
-        <v>954</v>
+        <v>968</v>
       </c>
       <c r="AA41" t="n">
-        <v>961</v>
+        <v>840</v>
       </c>
       <c r="AB41" t="n">
-        <v>968</v>
+        <v>850</v>
       </c>
       <c r="AC41" t="n">
-        <v>840</v>
+        <v>856</v>
       </c>
       <c r="AD41" t="n">
-        <v>850</v>
+        <v>863</v>
       </c>
       <c r="AE41" t="n">
+        <v>873</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>849</v>
+      </c>
+      <c r="AG41" t="n">
         <v>856</v>
       </c>
-      <c r="AF41" t="n">
-        <v>863</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>873</v>
-      </c>
       <c r="AH41" t="n">
-        <v>849</v>
+        <v>870</v>
       </c>
       <c r="AI41" t="n">
-        <v>856</v>
+        <v>0</v>
       </c>
       <c r="AJ41" t="n">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>888</v>
       </c>
       <c r="AL41" t="n">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="AM41" t="n">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="AN41" t="n">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="AO41" t="n">
-        <v>897</v>
+        <v>934</v>
       </c>
       <c r="AP41" t="n">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="AQ41" t="n">
-        <v>934</v>
+        <v>80</v>
       </c>
       <c r="AR41" t="n">
-        <v>933</v>
+        <v>150</v>
       </c>
       <c r="AS41" t="n">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AT41" t="n">
-        <v>150</v>
+        <v>382</v>
       </c>
       <c r="AU41" t="n">
-        <v>215</v>
+        <v>386</v>
       </c>
       <c r="AV41" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="AW41" t="n">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AX41" t="n">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AY41" t="n">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AZ41" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="BA41" t="n">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="BB41" t="n">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="BC41" t="n">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="BD41" t="n">
         <v>0</v>
@@ -8461,12 +8217,6 @@
         <v>0</v>
       </c>
       <c r="BI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8656,12 +8406,6 @@
       <c r="BI42" t="n">
         <v>0</v>
       </c>
-      <c r="BJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8709,94 +8453,94 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2203</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2412</v>
       </c>
       <c r="Q43" t="n">
-        <v>2203</v>
+        <v>2218</v>
       </c>
       <c r="R43" t="n">
-        <v>2412</v>
+        <v>2219</v>
       </c>
       <c r="S43" t="n">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="T43" t="n">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="U43" t="n">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="V43" t="n">
         <v>2220</v>
       </c>
       <c r="W43" t="n">
-        <v>2220</v>
+        <v>2237</v>
       </c>
       <c r="X43" t="n">
-        <v>2220</v>
+        <v>2240</v>
       </c>
       <c r="Y43" t="n">
-        <v>2237</v>
+        <v>2245</v>
       </c>
       <c r="Z43" t="n">
-        <v>2240</v>
+        <v>2248</v>
       </c>
       <c r="AA43" t="n">
-        <v>2245</v>
+        <v>2251</v>
       </c>
       <c r="AB43" t="n">
-        <v>2248</v>
+        <v>2244</v>
       </c>
       <c r="AC43" t="n">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="AD43" t="n">
-        <v>2244</v>
+        <v>2259</v>
       </c>
       <c r="AE43" t="n">
-        <v>2249</v>
+        <v>2273</v>
       </c>
       <c r="AF43" t="n">
-        <v>2259</v>
+        <v>2283</v>
       </c>
       <c r="AG43" t="n">
-        <v>2273</v>
+        <v>2292</v>
       </c>
       <c r="AH43" t="n">
-        <v>2283</v>
+        <v>2318</v>
       </c>
       <c r="AI43" t="n">
-        <v>2292</v>
+        <v>2329</v>
       </c>
       <c r="AJ43" t="n">
-        <v>2318</v>
+        <v>2338</v>
       </c>
       <c r="AK43" t="n">
-        <v>2329</v>
+        <v>2340</v>
       </c>
       <c r="AL43" t="n">
-        <v>2338</v>
+        <v>2345</v>
       </c>
       <c r="AM43" t="n">
-        <v>2340</v>
+        <v>2344</v>
       </c>
       <c r="AN43" t="n">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="AO43" t="n">
+        <v>2346</v>
+      </c>
+      <c r="AP43" t="n">
         <v>2344</v>
       </c>
-      <c r="AP43" t="n">
-        <v>2346</v>
-      </c>
       <c r="AQ43" t="n">
-        <v>2346</v>
+        <v>0</v>
       </c>
       <c r="AR43" t="n">
-        <v>2344</v>
+        <v>0</v>
       </c>
       <c r="AS43" t="n">
         <v>0</v>
@@ -8847,12 +8591,6 @@
         <v>0</v>
       </c>
       <c r="BI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9042,12 +8780,6 @@
       <c r="BI44" t="n">
         <v>0</v>
       </c>
-      <c r="BJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9235,12 +8967,6 @@
       <c r="BI45" t="n">
         <v>0</v>
       </c>
-      <c r="BJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9428,12 +9154,6 @@
       <c r="BI46" t="n">
         <v>0</v>
       </c>
-      <c r="BJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9442,189 +9162,183 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>120519</v>
+        <v>123573</v>
       </c>
       <c r="C47" t="n">
-        <v>121922</v>
+        <v>122560</v>
       </c>
       <c r="D47" t="n">
-        <v>123573</v>
+        <v>120902</v>
       </c>
       <c r="E47" t="n">
-        <v>122560</v>
+        <v>123034</v>
       </c>
       <c r="F47" t="n">
-        <v>120902</v>
+        <v>125034</v>
       </c>
       <c r="G47" t="n">
-        <v>123034</v>
+        <v>126921</v>
       </c>
       <c r="H47" t="n">
-        <v>125034</v>
+        <v>124694</v>
       </c>
       <c r="I47" t="n">
-        <v>126921</v>
+        <v>126583</v>
       </c>
       <c r="J47" t="n">
-        <v>124694</v>
+        <v>128324</v>
       </c>
       <c r="K47" t="n">
-        <v>126583</v>
+        <v>130421</v>
       </c>
       <c r="L47" t="n">
-        <v>128324</v>
+        <v>132571</v>
       </c>
       <c r="M47" t="n">
-        <v>130421</v>
+        <v>134695.008</v>
       </c>
       <c r="N47" t="n">
-        <v>132571</v>
+        <v>137050</v>
       </c>
       <c r="O47" t="n">
-        <v>134695.008</v>
+        <v>139592.992</v>
       </c>
       <c r="P47" t="n">
-        <v>137050</v>
+        <v>142075.008</v>
       </c>
       <c r="Q47" t="n">
-        <v>139592.992</v>
+        <v>144260.992</v>
       </c>
       <c r="R47" t="n">
-        <v>142075.008</v>
+        <v>146306</v>
       </c>
       <c r="S47" t="n">
-        <v>144260.992</v>
+        <v>148206</v>
       </c>
       <c r="T47" t="n">
-        <v>146306</v>
+        <v>149794</v>
       </c>
       <c r="U47" t="n">
-        <v>148206</v>
+        <v>151423.008</v>
       </c>
       <c r="V47" t="n">
-        <v>149794</v>
+        <v>153219.008</v>
       </c>
       <c r="W47" t="n">
-        <v>151423.008</v>
+        <v>155340</v>
       </c>
       <c r="X47" t="n">
-        <v>153219.008</v>
+        <v>157239.008</v>
       </c>
       <c r="Y47" t="n">
-        <v>155340</v>
+        <v>159628.992</v>
       </c>
       <c r="Z47" t="n">
-        <v>157239.008</v>
+        <v>162291.008</v>
       </c>
       <c r="AA47" t="n">
-        <v>159628.992</v>
+        <v>164928.992</v>
       </c>
       <c r="AB47" t="n">
-        <v>162291.008</v>
+        <v>167935.008</v>
       </c>
       <c r="AC47" t="n">
-        <v>164928.992</v>
+        <v>170970</v>
       </c>
       <c r="AD47" t="n">
-        <v>167935.008</v>
+        <v>174331.008</v>
       </c>
       <c r="AE47" t="n">
-        <v>170970</v>
+        <v>178160</v>
       </c>
       <c r="AF47" t="n">
-        <v>174331.008</v>
+        <v>182040.992</v>
       </c>
       <c r="AG47" t="n">
-        <v>178160</v>
+        <v>185722</v>
       </c>
       <c r="AH47" t="n">
-        <v>182040.992</v>
+        <v>193774</v>
       </c>
       <c r="AI47" t="n">
-        <v>185722</v>
+        <v>197607.008</v>
       </c>
       <c r="AJ47" t="n">
-        <v>193774</v>
+        <v>201230</v>
       </c>
       <c r="AK47" t="n">
-        <v>197607.008</v>
+        <v>204500</v>
       </c>
       <c r="AL47" t="n">
-        <v>201230</v>
+        <v>207447.008</v>
       </c>
       <c r="AM47" t="n">
-        <v>204500</v>
+        <v>209584</v>
       </c>
       <c r="AN47" t="n">
-        <v>207447.008</v>
+        <v>211634</v>
       </c>
       <c r="AO47" t="n">
-        <v>209584</v>
+        <v>213643.008</v>
       </c>
       <c r="AP47" t="n">
-        <v>211634</v>
+        <v>215724</v>
       </c>
       <c r="AQ47" t="n">
-        <v>213643.008</v>
+        <v>220026</v>
       </c>
       <c r="AR47" t="n">
-        <v>215724</v>
+        <v>222172</v>
       </c>
       <c r="AS47" t="n">
-        <v>220026</v>
+        <v>224159.008</v>
       </c>
       <c r="AT47" t="n">
-        <v>222172</v>
+        <v>226080</v>
       </c>
       <c r="AU47" t="n">
-        <v>224159.008</v>
+        <v>227716.992</v>
       </c>
       <c r="AV47" t="n">
-        <v>226080</v>
+        <v>228856.992</v>
       </c>
       <c r="AW47" t="n">
-        <v>227716.992</v>
+        <v>229832.992</v>
       </c>
       <c r="AX47" t="n">
-        <v>228856.992</v>
+        <v>230496.992</v>
       </c>
       <c r="AY47" t="n">
-        <v>229832.992</v>
+        <v>231086</v>
       </c>
       <c r="AZ47" t="n">
-        <v>230496.992</v>
+        <v>231691.008</v>
       </c>
       <c r="BA47" t="n">
-        <v>231086</v>
+        <v>232712.992</v>
       </c>
       <c r="BB47" t="n">
-        <v>231691.008</v>
+        <v>241048</v>
       </c>
       <c r="BC47" t="n">
-        <v>232712.992</v>
+        <v>145752</v>
       </c>
       <c r="BD47" t="n">
-        <v>241048</v>
+        <v>148692</v>
       </c>
       <c r="BE47" t="n">
-        <v>145752</v>
+        <v>148304</v>
       </c>
       <c r="BF47" t="n">
-        <v>148692</v>
+        <v>154447.008</v>
       </c>
       <c r="BG47" t="n">
-        <v>148304</v>
+        <v>157596</v>
       </c>
       <c r="BH47" t="n">
-        <v>154447.008</v>
+        <v>160202</v>
       </c>
       <c r="BI47" t="n">
-        <v>157596</v>
-      </c>
-      <c r="BJ47" t="n">
-        <v>160202</v>
-      </c>
-      <c r="BK47" t="n">
         <v>162783.008</v>
       </c>
     </row>
@@ -9635,10 +9349,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>57200</v>
+        <v>60200</v>
       </c>
       <c r="C48" t="n">
-        <v>57200</v>
+        <v>60200</v>
       </c>
       <c r="D48" t="n">
         <v>60200</v>
@@ -9647,10 +9361,10 @@
         <v>60200</v>
       </c>
       <c r="F48" t="n">
-        <v>60200</v>
+        <v>62000</v>
       </c>
       <c r="G48" t="n">
-        <v>60200</v>
+        <v>62000</v>
       </c>
       <c r="H48" t="n">
         <v>62000</v>
@@ -9659,10 +9373,10 @@
         <v>62000</v>
       </c>
       <c r="J48" t="n">
-        <v>62000</v>
+        <v>67000</v>
       </c>
       <c r="K48" t="n">
-        <v>62000</v>
+        <v>67000</v>
       </c>
       <c r="L48" t="n">
         <v>67000</v>
@@ -9683,10 +9397,10 @@
         <v>67000</v>
       </c>
       <c r="R48" t="n">
-        <v>67000</v>
+        <v>74000</v>
       </c>
       <c r="S48" t="n">
-        <v>67000</v>
+        <v>74000</v>
       </c>
       <c r="T48" t="n">
         <v>74000</v>
@@ -9695,10 +9409,10 @@
         <v>74000</v>
       </c>
       <c r="V48" t="n">
-        <v>74000</v>
+        <v>79000</v>
       </c>
       <c r="W48" t="n">
-        <v>74000</v>
+        <v>79000</v>
       </c>
       <c r="X48" t="n">
         <v>79000</v>
@@ -9719,10 +9433,10 @@
         <v>79000</v>
       </c>
       <c r="AD48" t="n">
-        <v>79000</v>
+        <v>123144</v>
       </c>
       <c r="AE48" t="n">
-        <v>79000</v>
+        <v>123144</v>
       </c>
       <c r="AF48" t="n">
         <v>123144</v>
@@ -9791,10 +9505,10 @@
         <v>123144</v>
       </c>
       <c r="BB48" t="n">
-        <v>123144</v>
+        <v>0</v>
       </c>
       <c r="BC48" t="n">
-        <v>123144</v>
+        <v>0</v>
       </c>
       <c r="BD48" t="n">
         <v>0</v>
@@ -9812,12 +9526,6 @@
         <v>0</v>
       </c>
       <c r="BI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9984,10 +9692,10 @@
         <v>182</v>
       </c>
       <c r="BB49" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="BC49" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="BD49" t="n">
         <v>0</v>
@@ -10005,12 +9713,6 @@
         <v>0</v>
       </c>
       <c r="BI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10200,12 +9902,6 @@
       <c r="BI50" t="n">
         <v>0</v>
       </c>
-      <c r="BJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10214,166 +9910,166 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>63137</v>
+        <v>63191</v>
       </c>
       <c r="C51" t="n">
-        <v>64540</v>
+        <v>62178</v>
       </c>
       <c r="D51" t="n">
-        <v>63191</v>
+        <v>60520</v>
       </c>
       <c r="E51" t="n">
-        <v>62178</v>
+        <v>62652</v>
       </c>
       <c r="F51" t="n">
-        <v>60520</v>
+        <v>62852</v>
       </c>
       <c r="G51" t="n">
-        <v>62652</v>
+        <v>64739</v>
       </c>
       <c r="H51" t="n">
-        <v>62852</v>
+        <v>62512</v>
       </c>
       <c r="I51" t="n">
-        <v>64739</v>
+        <v>64401</v>
       </c>
       <c r="J51" t="n">
-        <v>62512</v>
+        <v>61142</v>
       </c>
       <c r="K51" t="n">
-        <v>64401</v>
+        <v>63239</v>
       </c>
       <c r="L51" t="n">
-        <v>61142</v>
+        <v>65389</v>
       </c>
       <c r="M51" t="n">
-        <v>63239</v>
+        <v>67513</v>
       </c>
       <c r="N51" t="n">
-        <v>65389</v>
+        <v>69868</v>
       </c>
       <c r="O51" t="n">
-        <v>67513</v>
+        <v>72411</v>
       </c>
       <c r="P51" t="n">
-        <v>69868</v>
+        <v>74893</v>
       </c>
       <c r="Q51" t="n">
-        <v>72411</v>
+        <v>77079</v>
       </c>
       <c r="R51" t="n">
-        <v>74893</v>
+        <v>72124</v>
       </c>
       <c r="S51" t="n">
-        <v>77079</v>
+        <v>74024</v>
       </c>
       <c r="T51" t="n">
-        <v>72124</v>
+        <v>75612</v>
       </c>
       <c r="U51" t="n">
-        <v>74024</v>
+        <v>77241</v>
       </c>
       <c r="V51" t="n">
-        <v>75612</v>
+        <v>74037</v>
       </c>
       <c r="W51" t="n">
-        <v>77241</v>
+        <v>76158</v>
       </c>
       <c r="X51" t="n">
-        <v>74037</v>
+        <v>78057</v>
       </c>
       <c r="Y51" t="n">
-        <v>76158</v>
+        <v>80447</v>
       </c>
       <c r="Z51" t="n">
-        <v>78057</v>
+        <v>83109</v>
       </c>
       <c r="AA51" t="n">
-        <v>80447</v>
+        <v>85747</v>
       </c>
       <c r="AB51" t="n">
-        <v>83109</v>
+        <v>88753</v>
       </c>
       <c r="AC51" t="n">
-        <v>85747</v>
+        <v>91788</v>
       </c>
       <c r="AD51" t="n">
-        <v>88753</v>
+        <v>51005</v>
       </c>
       <c r="AE51" t="n">
-        <v>91788</v>
+        <v>54834</v>
       </c>
       <c r="AF51" t="n">
-        <v>51005</v>
+        <v>58715</v>
       </c>
       <c r="AG51" t="n">
-        <v>54834</v>
+        <v>62396</v>
       </c>
       <c r="AH51" t="n">
-        <v>58715</v>
+        <v>70448</v>
       </c>
       <c r="AI51" t="n">
-        <v>62396</v>
+        <v>74281</v>
       </c>
       <c r="AJ51" t="n">
-        <v>70448</v>
+        <v>77904</v>
       </c>
       <c r="AK51" t="n">
-        <v>74281</v>
+        <v>81174</v>
       </c>
       <c r="AL51" t="n">
-        <v>77904</v>
+        <v>84121</v>
       </c>
       <c r="AM51" t="n">
-        <v>81174</v>
+        <v>86258</v>
       </c>
       <c r="AN51" t="n">
-        <v>84121</v>
+        <v>88308</v>
       </c>
       <c r="AO51" t="n">
-        <v>86258</v>
+        <v>90317</v>
       </c>
       <c r="AP51" t="n">
-        <v>88308</v>
+        <v>92398</v>
       </c>
       <c r="AQ51" t="n">
-        <v>90317</v>
+        <v>96700</v>
       </c>
       <c r="AR51" t="n">
-        <v>92398</v>
+        <v>98846</v>
       </c>
       <c r="AS51" t="n">
-        <v>96700</v>
+        <v>100833</v>
       </c>
       <c r="AT51" t="n">
-        <v>98846</v>
+        <v>102754</v>
       </c>
       <c r="AU51" t="n">
-        <v>100833</v>
+        <v>104391</v>
       </c>
       <c r="AV51" t="n">
-        <v>102754</v>
+        <v>105531</v>
       </c>
       <c r="AW51" t="n">
-        <v>104391</v>
+        <v>106507</v>
       </c>
       <c r="AX51" t="n">
-        <v>105531</v>
+        <v>107171</v>
       </c>
       <c r="AY51" t="n">
-        <v>106507</v>
+        <v>107760</v>
       </c>
       <c r="AZ51" t="n">
-        <v>107171</v>
+        <v>108365</v>
       </c>
       <c r="BA51" t="n">
-        <v>107760</v>
+        <v>109387</v>
       </c>
       <c r="BB51" t="n">
-        <v>108365</v>
+        <v>0</v>
       </c>
       <c r="BC51" t="n">
-        <v>109387</v>
+        <v>0</v>
       </c>
       <c r="BD51" t="n">
         <v>0</v>
@@ -10391,12 +10087,6 @@
         <v>0</v>
       </c>
       <c r="BI51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10586,12 +10276,6 @@
       <c r="BI52" t="n">
         <v>0</v>
       </c>
-      <c r="BJ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK52" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10779,12 +10463,6 @@
       <c r="BI53" t="n">
         <v>0</v>
       </c>
-      <c r="BJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10972,12 +10650,6 @@
       <c r="BI54" t="n">
         <v>0</v>
       </c>
-      <c r="BJ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11165,12 +10837,6 @@
       <c r="BI55" t="n">
         <v>0</v>
       </c>
-      <c r="BJ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11358,12 +11024,6 @@
       <c r="BI56" t="n">
         <v>0</v>
       </c>
-      <c r="BJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11398,12 +11058,8 @@
       <c r="J57" t="n">
         <v>0</v>
       </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -11445,30 +11101,28 @@
       <c r="AY57" t="inlineStr"/>
       <c r="AZ57" t="inlineStr"/>
       <c r="BA57" t="inlineStr"/>
-      <c r="BB57" t="inlineStr"/>
-      <c r="BC57" t="inlineStr"/>
+      <c r="BB57" t="n">
+        <v>6828</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>4654</v>
+      </c>
       <c r="BD57" t="n">
-        <v>6828</v>
+        <v>4645</v>
       </c>
       <c r="BE57" t="n">
-        <v>4654</v>
+        <v>4756</v>
       </c>
       <c r="BF57" t="n">
-        <v>4645</v>
+        <v>5096</v>
       </c>
       <c r="BG57" t="n">
-        <v>4756</v>
+        <v>4529</v>
       </c>
       <c r="BH57" t="n">
-        <v>5096</v>
+        <v>4172</v>
       </c>
       <c r="BI57" t="n">
-        <v>4529</v>
-      </c>
-      <c r="BJ57" t="n">
-        <v>4172</v>
-      </c>
-      <c r="BK57" t="n">
         <v>4163</v>
       </c>
     </row>
@@ -11505,12 +11159,8 @@
       <c r="J58" t="n">
         <v>0</v>
       </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -11552,8 +11202,12 @@
       <c r="AY58" t="inlineStr"/>
       <c r="AZ58" t="inlineStr"/>
       <c r="BA58" t="inlineStr"/>
-      <c r="BB58" t="inlineStr"/>
-      <c r="BC58" t="inlineStr"/>
+      <c r="BB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>0</v>
+      </c>
       <c r="BD58" t="n">
         <v>0</v>
       </c>
@@ -11570,12 +11224,6 @@
         <v>0</v>
       </c>
       <c r="BI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11619,22 +11267,22 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>3346</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>3742</v>
       </c>
       <c r="O59" t="n">
-        <v>3346</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>3742</v>
+        <v>-7088</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>-7088</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
@@ -11718,57 +11366,51 @@
         <v>0</v>
       </c>
       <c r="AT59" t="n">
-        <v>0</v>
+        <v>3383</v>
       </c>
       <c r="AU59" t="n">
-        <v>0</v>
+        <v>9664</v>
       </c>
       <c r="AV59" t="n">
-        <v>3383</v>
+        <v>2316</v>
       </c>
       <c r="AW59" t="n">
-        <v>9664</v>
+        <v>0</v>
       </c>
       <c r="AX59" t="n">
-        <v>2316</v>
+        <v>1127</v>
       </c>
       <c r="AY59" t="n">
-        <v>0</v>
+        <v>2732</v>
       </c>
       <c r="AZ59" t="n">
-        <v>1127</v>
+        <v>1089</v>
       </c>
       <c r="BA59" t="n">
-        <v>2732</v>
+        <v>0</v>
       </c>
       <c r="BB59" t="n">
-        <v>1089</v>
+        <v>6828</v>
       </c>
       <c r="BC59" t="n">
-        <v>0</v>
+        <v>4654</v>
       </c>
       <c r="BD59" t="n">
-        <v>6828</v>
+        <v>4645</v>
       </c>
       <c r="BE59" t="n">
-        <v>4654</v>
+        <v>4756</v>
       </c>
       <c r="BF59" t="n">
-        <v>4645</v>
+        <v>5096</v>
       </c>
       <c r="BG59" t="n">
-        <v>4756</v>
+        <v>4529</v>
       </c>
       <c r="BH59" t="n">
-        <v>5096</v>
+        <v>4172</v>
       </c>
       <c r="BI59" t="n">
-        <v>4529</v>
-      </c>
-      <c r="BJ59" t="n">
-        <v>4172</v>
-      </c>
-      <c r="BK59" t="n">
         <v>4163</v>
       </c>
     </row>
@@ -11934,20 +11576,14 @@
       <c r="BA60" t="n">
         <v>0</v>
       </c>
-      <c r="BB60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC60" t="n">
-        <v>0</v>
-      </c>
+      <c r="BB60" t="inlineStr"/>
+      <c r="BC60" t="inlineStr"/>
       <c r="BD60" t="inlineStr"/>
       <c r="BE60" t="inlineStr"/>
       <c r="BF60" t="inlineStr"/>
       <c r="BG60" t="inlineStr"/>
       <c r="BH60" t="inlineStr"/>
       <c r="BI60" t="inlineStr"/>
-      <c r="BJ60" t="inlineStr"/>
-      <c r="BK60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11989,22 +11625,22 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>3346</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>3742</v>
       </c>
       <c r="O61" t="n">
-        <v>3346</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>3742</v>
+        <v>-7088</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>-7088</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -12088,43 +11724,37 @@
         <v>0</v>
       </c>
       <c r="AT61" t="n">
-        <v>0</v>
+        <v>3383</v>
       </c>
       <c r="AU61" t="n">
-        <v>0</v>
+        <v>9664</v>
       </c>
       <c r="AV61" t="n">
-        <v>3383</v>
+        <v>2316</v>
       </c>
       <c r="AW61" t="n">
-        <v>9664</v>
+        <v>0</v>
       </c>
       <c r="AX61" t="n">
-        <v>2316</v>
+        <v>1127</v>
       </c>
       <c r="AY61" t="n">
-        <v>0</v>
+        <v>2732</v>
       </c>
       <c r="AZ61" t="n">
-        <v>1127</v>
+        <v>1089</v>
       </c>
       <c r="BA61" t="n">
-        <v>2732</v>
-      </c>
-      <c r="BB61" t="n">
-        <v>1089</v>
-      </c>
-      <c r="BC61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BB61" t="inlineStr"/>
+      <c r="BC61" t="inlineStr"/>
       <c r="BD61" t="inlineStr"/>
       <c r="BE61" t="inlineStr"/>
       <c r="BF61" t="inlineStr"/>
       <c r="BG61" t="inlineStr"/>
       <c r="BH61" t="inlineStr"/>
       <c r="BI61" t="inlineStr"/>
-      <c r="BJ61" t="inlineStr"/>
-      <c r="BK61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12160,16 +11790,16 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>11674</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>11674</v>
       </c>
       <c r="M62" t="n">
-        <v>11674</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>11674</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -12288,20 +11918,14 @@
       <c r="BA62" t="n">
         <v>0</v>
       </c>
-      <c r="BB62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC62" t="n">
-        <v>0</v>
-      </c>
+      <c r="BB62" t="inlineStr"/>
+      <c r="BC62" t="inlineStr"/>
       <c r="BD62" t="inlineStr"/>
       <c r="BE62" t="inlineStr"/>
       <c r="BF62" t="inlineStr"/>
       <c r="BG62" t="inlineStr"/>
       <c r="BH62" t="inlineStr"/>
       <c r="BI62" t="inlineStr"/>
-      <c r="BJ62" t="inlineStr"/>
-      <c r="BK62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12310,175 +11934,169 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-81</v>
+        <v>-55</v>
       </c>
       <c r="C63" t="n">
-        <v>-37</v>
+        <v>-199</v>
       </c>
       <c r="D63" t="n">
-        <v>-55</v>
+        <v>-120</v>
       </c>
       <c r="E63" t="n">
-        <v>-199</v>
+        <v>-134</v>
       </c>
       <c r="F63" t="n">
+        <v>-64</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-121</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-94</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-97</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-59</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-98</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-98</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-110</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-192</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-69</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-68</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-209</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-105</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-92</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-85</v>
+      </c>
+      <c r="U63" t="n">
         <v>-120</v>
       </c>
-      <c r="G63" t="n">
-        <v>-134</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-64</v>
-      </c>
-      <c r="I63" t="n">
+      <c r="V63" t="n">
+        <v>-174</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-75</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-167</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-122</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-76</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-230</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-181</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-99</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-87</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-677</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-465</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-103</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-1321</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-476</v>
+      </c>
+      <c r="AK63" t="n">
         <v>-121</v>
       </c>
-      <c r="J63" t="n">
-        <v>-94</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-97</v>
-      </c>
-      <c r="L63" t="n">
-        <v>-59</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-98</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-98</v>
-      </c>
-      <c r="O63" t="n">
-        <v>-110</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-192</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>-69</v>
-      </c>
-      <c r="R63" t="n">
-        <v>-68</v>
-      </c>
-      <c r="S63" t="n">
-        <v>-209</v>
-      </c>
-      <c r="T63" t="n">
-        <v>-105</v>
-      </c>
-      <c r="U63" t="n">
-        <v>-92</v>
-      </c>
-      <c r="V63" t="n">
-        <v>-85</v>
-      </c>
-      <c r="W63" t="n">
-        <v>-120</v>
-      </c>
-      <c r="X63" t="n">
-        <v>-174</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>-75</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>-167</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>-122</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>-76</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>-230</v>
-      </c>
-      <c r="AE63" t="n">
+      <c r="AL63" t="n">
+        <v>-71</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-921</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-279</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-130</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-66</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-674</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-282</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-107</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-67</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>62</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>-253</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>-109</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>-63</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>47</v>
+      </c>
+      <c r="AZ63" t="n">
         <v>-181</v>
       </c>
-      <c r="AF63" t="n">
-        <v>-99</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>-87</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>-677</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>-465</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>-103</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>-1321</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>-476</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>-121</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>-71</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>-921</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>-279</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>-130</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>-66</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>-674</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>-282</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>-107</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>-67</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>62</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>-253</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>-109</v>
-      </c>
-      <c r="AZ63" t="n">
-        <v>-63</v>
-      </c>
       <c r="BA63" t="n">
-        <v>47</v>
-      </c>
-      <c r="BB63" t="n">
-        <v>-181</v>
-      </c>
-      <c r="BC63" t="n">
         <v>-115</v>
       </c>
+      <c r="BB63" t="inlineStr"/>
+      <c r="BC63" t="inlineStr"/>
       <c r="BD63" t="inlineStr"/>
       <c r="BE63" t="inlineStr"/>
       <c r="BF63" t="inlineStr"/>
       <c r="BG63" t="inlineStr"/>
       <c r="BH63" t="inlineStr"/>
       <c r="BI63" t="inlineStr"/>
-      <c r="BJ63" t="inlineStr"/>
-      <c r="BK63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12497,8 +12115,12 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
       <c r="O64" t="n">
         <v>0</v>
       </c>
@@ -12616,20 +12238,14 @@
       <c r="BA64" t="n">
         <v>0</v>
       </c>
-      <c r="BB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC64" t="n">
-        <v>0</v>
-      </c>
+      <c r="BB64" t="inlineStr"/>
+      <c r="BC64" t="inlineStr"/>
       <c r="BD64" t="inlineStr"/>
       <c r="BE64" t="inlineStr"/>
       <c r="BF64" t="inlineStr"/>
       <c r="BG64" t="inlineStr"/>
       <c r="BH64" t="inlineStr"/>
       <c r="BI64" t="inlineStr"/>
-      <c r="BJ64" t="inlineStr"/>
-      <c r="BK64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12638,43 +12254,43 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
+        <v>26</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>36</v>
+      </c>
+      <c r="F65" t="n">
         <v>28</v>
       </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>26</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
       <c r="G65" t="n">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>28</v>
       </c>
-      <c r="I65" t="n">
-        <v>161</v>
-      </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M65" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -12761,52 +12377,46 @@
         <v>0</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0</v>
+        <v>4399</v>
       </c>
       <c r="AR65" t="n">
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>4399</v>
+        <v>8</v>
       </c>
       <c r="AT65" t="n">
         <v>0</v>
       </c>
       <c r="AU65" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="AV65" t="n">
         <v>0</v>
       </c>
       <c r="AW65" t="n">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="AX65" t="n">
         <v>0</v>
       </c>
       <c r="AY65" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="AZ65" t="n">
         <v>0</v>
       </c>
       <c r="BA65" t="n">
-        <v>-5</v>
-      </c>
-      <c r="BB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC65" t="n">
         <v>4</v>
       </c>
+      <c r="BB65" t="inlineStr"/>
+      <c r="BC65" t="inlineStr"/>
       <c r="BD65" t="inlineStr"/>
       <c r="BE65" t="inlineStr"/>
       <c r="BF65" t="inlineStr"/>
       <c r="BG65" t="inlineStr"/>
       <c r="BH65" t="inlineStr"/>
       <c r="BI65" t="inlineStr"/>
-      <c r="BJ65" t="inlineStr"/>
-      <c r="BK65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12818,172 +12428,166 @@
         <v>-3</v>
       </c>
       <c r="C66" t="n">
-        <v>-18</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E66" t="n">
         <v>-3</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G66" t="n">
         <v>6</v>
       </c>
-      <c r="F66" t="n">
+      <c r="H66" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-4</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-3</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-27</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-13</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-11</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-19</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-2</v>
+      </c>
+      <c r="T66" t="n">
+        <v>15</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-8</v>
+      </c>
+      <c r="V66" t="n">
         <v>-14</v>
       </c>
-      <c r="G66" t="n">
+      <c r="W66" t="n">
+        <v>-5</v>
+      </c>
+      <c r="X66" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-7</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-518</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-36</v>
+      </c>
+      <c r="AC66" t="n">
         <v>-3</v>
       </c>
-      <c r="H66" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6</v>
-      </c>
-      <c r="J66" t="n">
-        <v>-5</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-8</v>
-      </c>
-      <c r="L66" t="n">
+      <c r="AD66" t="n">
         <v>-4</v>
       </c>
-      <c r="M66" t="n">
-        <v>-3</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3</v>
-      </c>
-      <c r="O66" t="n">
-        <v>-27</v>
-      </c>
-      <c r="P66" t="n">
-        <v>-8</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>-13</v>
-      </c>
-      <c r="R66" t="n">
-        <v>-11</v>
-      </c>
-      <c r="S66" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" t="n">
-        <v>-19</v>
-      </c>
-      <c r="U66" t="n">
-        <v>-2</v>
-      </c>
-      <c r="V66" t="n">
-        <v>15</v>
-      </c>
-      <c r="W66" t="n">
-        <v>-8</v>
-      </c>
-      <c r="X66" t="n">
-        <v>-14</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>-5</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>-7</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>-518</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>-36</v>
-      </c>
       <c r="AE66" t="n">
-        <v>-3</v>
+        <v>-295</v>
       </c>
       <c r="AF66" t="n">
-        <v>-4</v>
+        <v>297</v>
       </c>
       <c r="AG66" t="n">
-        <v>-295</v>
+        <v>0</v>
       </c>
       <c r="AH66" t="n">
-        <v>297</v>
+        <v>-320</v>
       </c>
       <c r="AI66" t="n">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="AJ66" t="n">
-        <v>-320</v>
+        <v>0</v>
       </c>
       <c r="AK66" t="n">
-        <v>955</v>
+        <v>-257</v>
       </c>
       <c r="AL66" t="n">
-        <v>0</v>
+        <v>-228</v>
       </c>
       <c r="AM66" t="n">
-        <v>-257</v>
+        <v>485</v>
       </c>
       <c r="AN66" t="n">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AO66" t="n">
-        <v>485</v>
+        <v>-168</v>
       </c>
       <c r="AP66" t="n">
-        <v>0</v>
+        <v>-168</v>
       </c>
       <c r="AQ66" t="n">
-        <v>-168</v>
+        <v>336</v>
       </c>
       <c r="AR66" t="n">
-        <v>-168</v>
+        <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>336</v>
+        <v>-167</v>
       </c>
       <c r="AT66" t="n">
-        <v>0</v>
+        <v>-169</v>
       </c>
       <c r="AU66" t="n">
-        <v>-167</v>
+        <v>-304</v>
       </c>
       <c r="AV66" t="n">
-        <v>-169</v>
+        <v>0</v>
       </c>
       <c r="AW66" t="n">
-        <v>-304</v>
+        <v>-89</v>
       </c>
       <c r="AX66" t="n">
-        <v>0</v>
+        <v>-66</v>
       </c>
       <c r="AY66" t="n">
-        <v>-89</v>
+        <v>-180</v>
       </c>
       <c r="AZ66" t="n">
-        <v>-66</v>
+        <v>0</v>
       </c>
       <c r="BA66" t="n">
-        <v>-180</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC66" t="n">
         <v>-93</v>
       </c>
+      <c r="BB66" t="inlineStr"/>
+      <c r="BC66" t="inlineStr"/>
       <c r="BD66" t="inlineStr"/>
       <c r="BE66" t="inlineStr"/>
       <c r="BF66" t="inlineStr"/>
       <c r="BG66" t="inlineStr"/>
       <c r="BH66" t="inlineStr"/>
       <c r="BI66" t="inlineStr"/>
-      <c r="BJ66" t="inlineStr"/>
-      <c r="BK66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13147,20 +12751,14 @@
       <c r="BA67" t="n">
         <v>0</v>
       </c>
-      <c r="BB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC67" t="n">
-        <v>0</v>
-      </c>
+      <c r="BB67" t="inlineStr"/>
+      <c r="BC67" t="inlineStr"/>
       <c r="BD67" t="inlineStr"/>
       <c r="BE67" t="inlineStr"/>
       <c r="BF67" t="inlineStr"/>
       <c r="BG67" t="inlineStr"/>
       <c r="BH67" t="inlineStr"/>
       <c r="BI67" t="inlineStr"/>
-      <c r="BJ67" t="inlineStr"/>
-      <c r="BK67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13169,189 +12767,183 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2207</v>
+        <v>2694</v>
       </c>
       <c r="C68" t="n">
-        <v>2624</v>
+        <v>5174</v>
       </c>
       <c r="D68" t="n">
-        <v>2694</v>
+        <v>3386</v>
       </c>
       <c r="E68" t="n">
-        <v>5174</v>
+        <v>3152</v>
       </c>
       <c r="F68" t="n">
-        <v>3386</v>
+        <v>2902</v>
       </c>
       <c r="G68" t="n">
-        <v>3152</v>
+        <v>2650</v>
       </c>
       <c r="H68" t="n">
-        <v>2902</v>
+        <v>2434</v>
       </c>
       <c r="I68" t="n">
-        <v>2650</v>
+        <v>2718</v>
       </c>
       <c r="J68" t="n">
-        <v>2434</v>
+        <v>3261</v>
       </c>
       <c r="K68" t="n">
-        <v>2718</v>
+        <v>-8413</v>
       </c>
       <c r="L68" t="n">
-        <v>3261</v>
+        <v>-8413</v>
       </c>
       <c r="M68" t="n">
-        <v>-8413</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>-8413</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>3996</v>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>11012</v>
       </c>
       <c r="Q68" t="n">
-        <v>3996</v>
+        <v>3608</v>
       </c>
       <c r="R68" t="n">
-        <v>11012</v>
+        <v>3194</v>
       </c>
       <c r="S68" t="n">
-        <v>3608</v>
+        <v>2963</v>
       </c>
       <c r="T68" t="n">
-        <v>3194</v>
+        <v>2559</v>
       </c>
       <c r="U68" t="n">
-        <v>2963</v>
+        <v>2557</v>
       </c>
       <c r="V68" t="n">
-        <v>2559</v>
+        <v>2861</v>
       </c>
       <c r="W68" t="n">
-        <v>2557</v>
+        <v>3283</v>
       </c>
       <c r="X68" t="n">
-        <v>2861</v>
+        <v>3512</v>
       </c>
       <c r="Y68" t="n">
-        <v>3283</v>
+        <v>3760</v>
       </c>
       <c r="Z68" t="n">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>3760</v>
+        <v>4732</v>
       </c>
       <c r="AB68" t="n">
-        <v>0</v>
+        <v>8924</v>
       </c>
       <c r="AC68" t="n">
-        <v>4732</v>
+        <v>4792</v>
       </c>
       <c r="AD68" t="n">
-        <v>8924</v>
+        <v>5187</v>
       </c>
       <c r="AE68" t="n">
-        <v>4792</v>
+        <v>6174</v>
       </c>
       <c r="AF68" t="n">
-        <v>5187</v>
+        <v>6317</v>
       </c>
       <c r="AG68" t="n">
-        <v>6174</v>
+        <v>6055</v>
       </c>
       <c r="AH68" t="n">
-        <v>6317</v>
+        <v>6706</v>
       </c>
       <c r="AI68" t="n">
-        <v>6055</v>
+        <v>6377</v>
       </c>
       <c r="AJ68" t="n">
-        <v>6706</v>
+        <v>5980</v>
       </c>
       <c r="AK68" t="n">
-        <v>6377</v>
+        <v>5316</v>
       </c>
       <c r="AL68" t="n">
-        <v>5980</v>
+        <v>4757</v>
       </c>
       <c r="AM68" t="n">
-        <v>5316</v>
+        <v>3719</v>
       </c>
       <c r="AN68" t="n">
-        <v>4757</v>
+        <v>3306</v>
       </c>
       <c r="AO68" t="n">
-        <v>3719</v>
+        <v>3333</v>
       </c>
       <c r="AP68" t="n">
-        <v>3306</v>
+        <v>3377</v>
       </c>
       <c r="AQ68" t="n">
-        <v>3333</v>
+        <v>-1339</v>
       </c>
       <c r="AR68" t="n">
-        <v>3377</v>
+        <v>3513</v>
       </c>
       <c r="AS68" t="n">
-        <v>-1339</v>
+        <v>3359</v>
       </c>
       <c r="AT68" t="n">
-        <v>3513</v>
+        <v>0</v>
       </c>
       <c r="AU68" t="n">
-        <v>3359</v>
+        <v>-6872</v>
       </c>
       <c r="AV68" t="n">
         <v>0</v>
       </c>
       <c r="AW68" t="n">
-        <v>-6872</v>
+        <v>1663</v>
       </c>
       <c r="AX68" t="n">
         <v>0</v>
       </c>
       <c r="AY68" t="n">
-        <v>1663</v>
+        <v>-1663</v>
       </c>
       <c r="AZ68" t="n">
         <v>0</v>
       </c>
       <c r="BA68" t="n">
-        <v>-1663</v>
+        <v>1744</v>
       </c>
       <c r="BB68" t="n">
-        <v>0</v>
+        <v>6368</v>
       </c>
       <c r="BC68" t="n">
-        <v>1744</v>
+        <v>4362</v>
       </c>
       <c r="BD68" t="n">
-        <v>6368</v>
+        <v>4359</v>
       </c>
       <c r="BE68" t="n">
-        <v>4362</v>
+        <v>4476</v>
       </c>
       <c r="BF68" t="n">
-        <v>4359</v>
+        <v>4736</v>
       </c>
       <c r="BG68" t="n">
-        <v>4476</v>
+        <v>4033</v>
       </c>
       <c r="BH68" t="n">
-        <v>4736</v>
+        <v>3880</v>
       </c>
       <c r="BI68" t="n">
-        <v>4033</v>
-      </c>
-      <c r="BJ68" t="n">
-        <v>3880</v>
-      </c>
-      <c r="BK68" t="n">
         <v>3867</v>
       </c>
     </row>
@@ -13362,175 +12954,169 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2210</v>
+        <v>2694</v>
       </c>
       <c r="C69" t="n">
-        <v>2624</v>
+        <v>5171</v>
       </c>
       <c r="D69" t="n">
-        <v>2694</v>
+        <v>3389</v>
       </c>
       <c r="E69" t="n">
-        <v>5171</v>
+        <v>3152</v>
       </c>
       <c r="F69" t="n">
-        <v>3389</v>
+        <v>2902</v>
       </c>
       <c r="G69" t="n">
-        <v>3152</v>
+        <v>2647</v>
       </c>
       <c r="H69" t="n">
-        <v>2902</v>
+        <v>2434</v>
       </c>
       <c r="I69" t="n">
-        <v>2647</v>
+        <v>2718</v>
       </c>
       <c r="J69" t="n">
-        <v>2434</v>
+        <v>3261</v>
       </c>
       <c r="K69" t="n">
-        <v>2718</v>
+        <v>-8413</v>
       </c>
       <c r="L69" t="n">
-        <v>3261</v>
+        <v>-8413</v>
       </c>
       <c r="M69" t="n">
-        <v>-8413</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>-8413</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>3996</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>11012</v>
       </c>
       <c r="Q69" t="n">
-        <v>3996</v>
+        <v>3608</v>
       </c>
       <c r="R69" t="n">
-        <v>11012</v>
+        <v>3194</v>
       </c>
       <c r="S69" t="n">
-        <v>3608</v>
+        <v>2963</v>
       </c>
       <c r="T69" t="n">
-        <v>3194</v>
+        <v>2559</v>
       </c>
       <c r="U69" t="n">
-        <v>2963</v>
+        <v>2557</v>
       </c>
       <c r="V69" t="n">
-        <v>2559</v>
+        <v>2861</v>
       </c>
       <c r="W69" t="n">
-        <v>2557</v>
+        <v>3283</v>
       </c>
       <c r="X69" t="n">
-        <v>2861</v>
+        <v>3512</v>
       </c>
       <c r="Y69" t="n">
-        <v>3283</v>
+        <v>3760</v>
       </c>
       <c r="Z69" t="n">
-        <v>3512</v>
+        <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>3760</v>
+        <v>4732</v>
       </c>
       <c r="AB69" t="n">
-        <v>0</v>
+        <v>8924</v>
       </c>
       <c r="AC69" t="n">
-        <v>4732</v>
+        <v>4792</v>
       </c>
       <c r="AD69" t="n">
-        <v>8924</v>
+        <v>5187</v>
       </c>
       <c r="AE69" t="n">
-        <v>4792</v>
+        <v>6174</v>
       </c>
       <c r="AF69" t="n">
-        <v>5187</v>
+        <v>6317</v>
       </c>
       <c r="AG69" t="n">
-        <v>6174</v>
+        <v>6055</v>
       </c>
       <c r="AH69" t="n">
-        <v>6317</v>
+        <v>6706</v>
       </c>
       <c r="AI69" t="n">
-        <v>6055</v>
+        <v>6377</v>
       </c>
       <c r="AJ69" t="n">
-        <v>6706</v>
+        <v>5980</v>
       </c>
       <c r="AK69" t="n">
-        <v>6377</v>
+        <v>5316</v>
       </c>
       <c r="AL69" t="n">
-        <v>5980</v>
+        <v>4757</v>
       </c>
       <c r="AM69" t="n">
-        <v>5316</v>
+        <v>3719</v>
       </c>
       <c r="AN69" t="n">
-        <v>4757</v>
+        <v>3306</v>
       </c>
       <c r="AO69" t="n">
-        <v>3719</v>
+        <v>3333</v>
       </c>
       <c r="AP69" t="n">
-        <v>3306</v>
+        <v>3377</v>
       </c>
       <c r="AQ69" t="n">
-        <v>3333</v>
+        <v>-1339</v>
       </c>
       <c r="AR69" t="n">
-        <v>3377</v>
+        <v>3513</v>
       </c>
       <c r="AS69" t="n">
-        <v>-1339</v>
+        <v>3359</v>
       </c>
       <c r="AT69" t="n">
-        <v>3513</v>
+        <v>0</v>
       </c>
       <c r="AU69" t="n">
-        <v>3359</v>
+        <v>-6872</v>
       </c>
       <c r="AV69" t="n">
         <v>0</v>
       </c>
       <c r="AW69" t="n">
-        <v>-6872</v>
+        <v>1663</v>
       </c>
       <c r="AX69" t="n">
         <v>0</v>
       </c>
       <c r="AY69" t="n">
-        <v>1663</v>
+        <v>-1663</v>
       </c>
       <c r="AZ69" t="n">
         <v>0</v>
       </c>
       <c r="BA69" t="n">
-        <v>-1663</v>
-      </c>
-      <c r="BB69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC69" t="n">
         <v>1744</v>
       </c>
+      <c r="BB69" t="inlineStr"/>
+      <c r="BC69" t="inlineStr"/>
       <c r="BD69" t="inlineStr"/>
       <c r="BE69" t="inlineStr"/>
       <c r="BF69" t="inlineStr"/>
       <c r="BG69" t="inlineStr"/>
       <c r="BH69" t="inlineStr"/>
       <c r="BI69" t="inlineStr"/>
-      <c r="BJ69" t="inlineStr"/>
-      <c r="BK69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13539,28 +13125,28 @@
         </is>
       </c>
       <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="n">
         <v>-3</v>
       </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
       <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
         <v>3</v>
       </c>
-      <c r="F70" t="n">
-        <v>-3</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -13694,20 +13280,14 @@
       <c r="BA70" t="n">
         <v>0</v>
       </c>
-      <c r="BB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC70" t="n">
-        <v>0</v>
-      </c>
+      <c r="BB70" t="inlineStr"/>
+      <c r="BC70" t="inlineStr"/>
       <c r="BD70" t="inlineStr"/>
       <c r="BE70" t="inlineStr"/>
       <c r="BF70" t="inlineStr"/>
       <c r="BG70" t="inlineStr"/>
       <c r="BH70" t="inlineStr"/>
       <c r="BI70" t="inlineStr"/>
-      <c r="BJ70" t="inlineStr"/>
-      <c r="BK70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13719,13 +13299,13 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -13742,12 +13322,8 @@
       <c r="J71" t="n">
         <v>0</v>
       </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -13789,30 +13365,28 @@
       <c r="AY71" t="inlineStr"/>
       <c r="AZ71" t="inlineStr"/>
       <c r="BA71" t="inlineStr"/>
-      <c r="BB71" t="inlineStr"/>
-      <c r="BC71" t="inlineStr"/>
+      <c r="BB71" t="n">
+        <v>-2080</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>-1422</v>
+      </c>
       <c r="BD71" t="n">
-        <v>-2080</v>
+        <v>-4649</v>
       </c>
       <c r="BE71" t="n">
-        <v>-1422</v>
+        <v>-1476</v>
       </c>
       <c r="BF71" t="n">
-        <v>-4649</v>
+        <v>-1588</v>
       </c>
       <c r="BG71" t="n">
-        <v>-1476</v>
+        <v>-1313</v>
       </c>
       <c r="BH71" t="n">
-        <v>-1588</v>
+        <v>-1299</v>
       </c>
       <c r="BI71" t="n">
-        <v>-1313</v>
-      </c>
-      <c r="BJ71" t="n">
-        <v>-1299</v>
-      </c>
-      <c r="BK71" t="n">
         <v>-1295</v>
       </c>
     </row>
@@ -13826,13 +13400,13 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -13849,12 +13423,8 @@
       <c r="J72" t="n">
         <v>0</v>
       </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -13904,8 +13474,6 @@
       <c r="BG72" t="inlineStr"/>
       <c r="BH72" t="inlineStr"/>
       <c r="BI72" t="inlineStr"/>
-      <c r="BJ72" t="inlineStr"/>
-      <c r="BK72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13940,12 +13508,8 @@
       <c r="J73" t="n">
         <v>0</v>
       </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -13995,8 +13559,6 @@
       <c r="BG73" t="inlineStr"/>
       <c r="BH73" t="inlineStr"/>
       <c r="BI73" t="inlineStr"/>
-      <c r="BJ73" t="inlineStr"/>
-      <c r="BK73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14005,175 +13567,169 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2155</v>
+        <v>2636</v>
       </c>
       <c r="C74" t="n">
-        <v>2597</v>
+        <v>5083</v>
       </c>
       <c r="D74" t="n">
-        <v>2636</v>
+        <v>3252</v>
       </c>
       <c r="E74" t="n">
-        <v>5083</v>
+        <v>3051</v>
       </c>
       <c r="F74" t="n">
-        <v>3252</v>
+        <v>2863</v>
       </c>
       <c r="G74" t="n">
-        <v>3051</v>
+        <v>2696</v>
       </c>
       <c r="H74" t="n">
-        <v>2863</v>
+        <v>2335</v>
       </c>
       <c r="I74" t="n">
-        <v>2696</v>
+        <v>2641</v>
       </c>
       <c r="J74" t="n">
-        <v>2335</v>
+        <v>3198</v>
       </c>
       <c r="K74" t="n">
-        <v>2641</v>
+        <v>3240</v>
       </c>
       <c r="L74" t="n">
-        <v>3198</v>
+        <v>3240</v>
       </c>
       <c r="M74" t="n">
-        <v>3240</v>
+        <v>3209</v>
       </c>
       <c r="N74" t="n">
-        <v>3240</v>
+        <v>3542</v>
       </c>
       <c r="O74" t="n">
-        <v>3209</v>
+        <v>3914</v>
       </c>
       <c r="P74" t="n">
-        <v>3542</v>
+        <v>3845</v>
       </c>
       <c r="Q74" t="n">
-        <v>3914</v>
+        <v>3399</v>
       </c>
       <c r="R74" t="n">
-        <v>3845</v>
+        <v>3070</v>
       </c>
       <c r="S74" t="n">
-        <v>3399</v>
+        <v>2869</v>
       </c>
       <c r="T74" t="n">
-        <v>3070</v>
+        <v>2489</v>
       </c>
       <c r="U74" t="n">
-        <v>2869</v>
+        <v>2429</v>
       </c>
       <c r="V74" t="n">
-        <v>2489</v>
+        <v>2673</v>
       </c>
       <c r="W74" t="n">
-        <v>2429</v>
+        <v>3203</v>
       </c>
       <c r="X74" t="n">
-        <v>2673</v>
+        <v>3370</v>
       </c>
       <c r="Y74" t="n">
-        <v>3203</v>
+        <v>3631</v>
       </c>
       <c r="Z74" t="n">
-        <v>3370</v>
+        <v>0</v>
       </c>
       <c r="AA74" t="n">
-        <v>3631</v>
+        <v>4138</v>
       </c>
       <c r="AB74" t="n">
-        <v>0</v>
+        <v>8658</v>
       </c>
       <c r="AC74" t="n">
-        <v>4138</v>
+        <v>4608</v>
       </c>
       <c r="AD74" t="n">
-        <v>8658</v>
+        <v>5084</v>
       </c>
       <c r="AE74" t="n">
-        <v>4608</v>
+        <v>5792</v>
       </c>
       <c r="AF74" t="n">
-        <v>5084</v>
+        <v>5937</v>
       </c>
       <c r="AG74" t="n">
-        <v>5792</v>
+        <v>5590</v>
       </c>
       <c r="AH74" t="n">
-        <v>5937</v>
+        <v>6283</v>
       </c>
       <c r="AI74" t="n">
-        <v>5590</v>
+        <v>6011</v>
       </c>
       <c r="AJ74" t="n">
-        <v>6283</v>
+        <v>5504</v>
       </c>
       <c r="AK74" t="n">
-        <v>6011</v>
+        <v>4938</v>
       </c>
       <c r="AL74" t="n">
-        <v>5504</v>
+        <v>4458</v>
       </c>
       <c r="AM74" t="n">
-        <v>4938</v>
+        <v>3283</v>
       </c>
       <c r="AN74" t="n">
-        <v>4458</v>
+        <v>3027</v>
       </c>
       <c r="AO74" t="n">
-        <v>3283</v>
+        <v>3035</v>
       </c>
       <c r="AP74" t="n">
-        <v>3027</v>
+        <v>3143</v>
       </c>
       <c r="AQ74" t="n">
-        <v>3035</v>
+        <v>2722</v>
       </c>
       <c r="AR74" t="n">
-        <v>3143</v>
+        <v>3231</v>
       </c>
       <c r="AS74" t="n">
-        <v>2722</v>
+        <v>3093</v>
       </c>
       <c r="AT74" t="n">
-        <v>3231</v>
+        <v>3147</v>
       </c>
       <c r="AU74" t="n">
-        <v>3093</v>
+        <v>2542</v>
       </c>
       <c r="AV74" t="n">
-        <v>3147</v>
+        <v>2063</v>
       </c>
       <c r="AW74" t="n">
-        <v>2542</v>
+        <v>1470</v>
       </c>
       <c r="AX74" t="n">
-        <v>2063</v>
+        <v>998</v>
       </c>
       <c r="AY74" t="n">
-        <v>1470</v>
+        <v>931</v>
       </c>
       <c r="AZ74" t="n">
-        <v>998</v>
+        <v>908</v>
       </c>
       <c r="BA74" t="n">
-        <v>931</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>908</v>
-      </c>
-      <c r="BC74" t="n">
         <v>1540</v>
       </c>
+      <c r="BB74" t="inlineStr"/>
+      <c r="BC74" t="inlineStr"/>
       <c r="BD74" t="inlineStr"/>
       <c r="BE74" t="inlineStr"/>
       <c r="BF74" t="inlineStr"/>
       <c r="BG74" t="inlineStr"/>
       <c r="BH74" t="inlineStr"/>
       <c r="BI74" t="inlineStr"/>
-      <c r="BJ74" t="inlineStr"/>
-      <c r="BK74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -14182,166 +13738,166 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-739</v>
+        <v>-3658</v>
       </c>
       <c r="C75" t="n">
-        <v>-931</v>
+        <v>808</v>
       </c>
       <c r="D75" t="n">
-        <v>-3658</v>
+        <v>-1100</v>
       </c>
       <c r="E75" t="n">
-        <v>808</v>
+        <v>-1031</v>
       </c>
       <c r="F75" t="n">
-        <v>-1100</v>
+        <v>-958</v>
       </c>
       <c r="G75" t="n">
-        <v>-1031</v>
+        <v>563</v>
       </c>
       <c r="H75" t="n">
-        <v>-958</v>
+        <v>-428</v>
       </c>
       <c r="I75" t="n">
-        <v>563</v>
+        <v>-883</v>
       </c>
       <c r="J75" t="n">
-        <v>-428</v>
+        <v>-1082</v>
       </c>
       <c r="K75" t="n">
-        <v>-883</v>
+        <v>2393</v>
       </c>
       <c r="L75" t="n">
-        <v>-1082</v>
+        <v>2393</v>
       </c>
       <c r="M75" t="n">
-        <v>2393</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>2393</v>
+        <v>-1164</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>-1317</v>
       </c>
       <c r="P75" t="n">
-        <v>-1164</v>
+        <v>2481</v>
       </c>
       <c r="Q75" t="n">
-        <v>-1317</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>2481</v>
+        <v>-1021</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>-957</v>
       </c>
       <c r="T75" t="n">
-        <v>-1021</v>
+        <v>-2020</v>
       </c>
       <c r="U75" t="n">
-        <v>-957</v>
+        <v>-793</v>
       </c>
       <c r="V75" t="n">
-        <v>-2020</v>
+        <v>-869</v>
       </c>
       <c r="W75" t="n">
-        <v>-793</v>
+        <v>629</v>
       </c>
       <c r="X75" t="n">
-        <v>-869</v>
+        <v>-1456</v>
       </c>
       <c r="Y75" t="n">
-        <v>629</v>
+        <v>-1234</v>
       </c>
       <c r="Z75" t="n">
-        <v>-1456</v>
+        <v>0</v>
       </c>
       <c r="AA75" t="n">
-        <v>-1234</v>
+        <v>-1628</v>
       </c>
       <c r="AB75" t="n">
-        <v>0</v>
+        <v>-2870</v>
       </c>
       <c r="AC75" t="n">
-        <v>-1628</v>
+        <v>-1567</v>
       </c>
       <c r="AD75" t="n">
-        <v>-2870</v>
+        <v>-1716</v>
       </c>
       <c r="AE75" t="n">
-        <v>-1567</v>
+        <v>-1954</v>
       </c>
       <c r="AF75" t="n">
-        <v>-1716</v>
+        <v>-1944</v>
       </c>
       <c r="AG75" t="n">
-        <v>-1954</v>
+        <v>-1902</v>
       </c>
       <c r="AH75" t="n">
-        <v>-1944</v>
+        <v>-2125</v>
       </c>
       <c r="AI75" t="n">
-        <v>-1902</v>
+        <v>-2023</v>
       </c>
       <c r="AJ75" t="n">
-        <v>-2125</v>
+        <v>-1875</v>
       </c>
       <c r="AK75" t="n">
-        <v>-2023</v>
+        <v>-1662</v>
       </c>
       <c r="AL75" t="n">
-        <v>-1875</v>
+        <v>-1506</v>
       </c>
       <c r="AM75" t="n">
-        <v>-1662</v>
+        <v>-1028</v>
       </c>
       <c r="AN75" t="n">
-        <v>-1506</v>
+        <v>-974</v>
       </c>
       <c r="AO75" t="n">
-        <v>-1028</v>
+        <v>-992</v>
       </c>
       <c r="AP75" t="n">
-        <v>-974</v>
+        <v>-1063</v>
       </c>
       <c r="AQ75" t="n">
-        <v>-992</v>
+        <v>827</v>
       </c>
       <c r="AR75" t="n">
-        <v>-1063</v>
+        <v>-1015</v>
       </c>
       <c r="AS75" t="n">
-        <v>827</v>
+        <v>-1041</v>
       </c>
       <c r="AT75" t="n">
-        <v>-1015</v>
+        <v>-1059</v>
       </c>
       <c r="AU75" t="n">
-        <v>-1041</v>
+        <v>-826</v>
       </c>
       <c r="AV75" t="n">
-        <v>-1059</v>
+        <v>-920</v>
       </c>
       <c r="AW75" t="n">
-        <v>-826</v>
+        <v>-491</v>
       </c>
       <c r="AX75" t="n">
-        <v>-920</v>
+        <v>-332</v>
       </c>
       <c r="AY75" t="n">
-        <v>-491</v>
+        <v>-309</v>
       </c>
       <c r="AZ75" t="n">
-        <v>-332</v>
+        <v>-302</v>
       </c>
       <c r="BA75" t="n">
-        <v>-309</v>
+        <v>-516</v>
       </c>
       <c r="BB75" t="n">
-        <v>-302</v>
+        <v>0</v>
       </c>
       <c r="BC75" t="n">
-        <v>-516</v>
+        <v>0</v>
       </c>
       <c r="BD75" t="n">
         <v>0</v>
@@ -14359,12 +13915,6 @@
         <v>0</v>
       </c>
       <c r="BI75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14411,139 +13961,133 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="P76" t="n">
-        <v>-22</v>
+        <v>76</v>
       </c>
       <c r="Q76" t="n">
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>76</v>
+        <v>-4</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="T76" t="n">
-        <v>-4</v>
+        <v>-20</v>
       </c>
       <c r="U76" t="n">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="V76" t="n">
-        <v>-20</v>
+        <v>-8</v>
       </c>
       <c r="W76" t="n">
+        <v>-1711</v>
+      </c>
+      <c r="X76" t="n">
+        <v>56</v>
+      </c>
+      <c r="Y76" t="n">
         <v>-7</v>
       </c>
-      <c r="X76" t="n">
-        <v>-8</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>-1711</v>
-      </c>
       <c r="Z76" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AA76" t="n">
+        <v>128</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>-17</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AD76" t="n">
         <v>-7</v>
       </c>
-      <c r="AB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>128</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>-17</v>
-      </c>
       <c r="AE76" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AI76" t="n">
         <v>-6</v>
       </c>
-      <c r="AF76" t="n">
-        <v>-7</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>-10</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>-7</v>
-      </c>
       <c r="AJ76" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AK76" t="n">
         <v>-6</v>
       </c>
       <c r="AL76" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="AM76" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="AN76" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>-34</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>853</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>-70</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>-65</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>-167</v>
+      </c>
+      <c r="AU76" t="n">
         <v>-5</v>
       </c>
-      <c r="AO76" t="n">
+      <c r="AV76" t="n">
         <v>-3</v>
       </c>
-      <c r="AP76" t="n">
+      <c r="AW76" t="n">
         <v>-3</v>
       </c>
-      <c r="AQ76" t="n">
-        <v>-34</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>853</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>-70</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>-65</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>-167</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>-5</v>
-      </c>
       <c r="AX76" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AY76" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AZ76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BA76" t="n">
         <v>-2</v>
       </c>
-      <c r="BA76" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BC76" t="n">
-        <v>-2</v>
-      </c>
+      <c r="BB76" t="inlineStr"/>
+      <c r="BC76" t="inlineStr"/>
       <c r="BD76" t="inlineStr"/>
       <c r="BE76" t="inlineStr"/>
       <c r="BF76" t="inlineStr"/>
       <c r="BG76" t="inlineStr"/>
       <c r="BH76" t="inlineStr"/>
       <c r="BI76" t="inlineStr"/>
-      <c r="BJ76" t="inlineStr"/>
-      <c r="BK76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -14578,12 +14122,8 @@
       <c r="J77" t="n">
         <v>0</v>
       </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -14625,30 +14165,28 @@
       <c r="AY77" t="inlineStr"/>
       <c r="AZ77" t="inlineStr"/>
       <c r="BA77" t="inlineStr"/>
-      <c r="BB77" t="inlineStr"/>
-      <c r="BC77" t="inlineStr"/>
+      <c r="BB77" t="n">
+        <v>4288</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>2940</v>
+      </c>
       <c r="BD77" t="n">
-        <v>4288</v>
+        <v>-290</v>
       </c>
       <c r="BE77" t="n">
-        <v>2940</v>
+        <v>3000</v>
       </c>
       <c r="BF77" t="n">
-        <v>-290</v>
+        <v>3148</v>
       </c>
       <c r="BG77" t="n">
-        <v>3000</v>
+        <v>2720</v>
       </c>
       <c r="BH77" t="n">
-        <v>3148</v>
+        <v>2581</v>
       </c>
       <c r="BI77" t="n">
-        <v>2720</v>
-      </c>
-      <c r="BJ77" t="n">
-        <v>2581</v>
-      </c>
-      <c r="BK77" t="n">
         <v>2572</v>
       </c>
     </row>
@@ -14685,12 +14223,8 @@
       <c r="J78" t="n">
         <v>0</v>
       </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -14740,8 +14274,6 @@
       <c r="BG78" t="inlineStr"/>
       <c r="BH78" t="inlineStr"/>
       <c r="BI78" t="inlineStr"/>
-      <c r="BJ78" t="inlineStr"/>
-      <c r="BK78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -14809,8 +14341,6 @@
       <c r="BG79" t="inlineStr"/>
       <c r="BH79" t="inlineStr"/>
       <c r="BI79" t="inlineStr"/>
-      <c r="BJ79" t="inlineStr"/>
-      <c r="BK79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -14819,175 +14349,169 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1416</v>
+        <v>-1022</v>
       </c>
       <c r="C80" t="n">
-        <v>1666</v>
+        <v>5891</v>
       </c>
       <c r="D80" t="n">
-        <v>-1022</v>
+        <v>2152</v>
       </c>
       <c r="E80" t="n">
-        <v>5891</v>
+        <v>2020</v>
       </c>
       <c r="F80" t="n">
-        <v>2152</v>
+        <v>1905</v>
       </c>
       <c r="G80" t="n">
-        <v>2020</v>
+        <v>3259</v>
       </c>
       <c r="H80" t="n">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="I80" t="n">
-        <v>3259</v>
+        <v>1758</v>
       </c>
       <c r="J80" t="n">
-        <v>1907</v>
+        <v>2116</v>
       </c>
       <c r="K80" t="n">
-        <v>1758</v>
+        <v>2171</v>
       </c>
       <c r="L80" t="n">
-        <v>2116</v>
+        <v>2171</v>
       </c>
       <c r="M80" t="n">
-        <v>2171</v>
+        <v>2124</v>
       </c>
       <c r="N80" t="n">
-        <v>2171</v>
+        <v>2356</v>
       </c>
       <c r="O80" t="n">
-        <v>2124</v>
+        <v>2543</v>
       </c>
       <c r="P80" t="n">
-        <v>2356</v>
+        <v>2572</v>
       </c>
       <c r="Q80" t="n">
-        <v>2543</v>
+        <v>2186</v>
       </c>
       <c r="R80" t="n">
-        <v>2572</v>
+        <v>2045</v>
       </c>
       <c r="S80" t="n">
-        <v>2186</v>
+        <v>1900</v>
       </c>
       <c r="T80" t="n">
-        <v>2045</v>
+        <v>1662</v>
       </c>
       <c r="U80" t="n">
-        <v>1900</v>
+        <v>1629</v>
       </c>
       <c r="V80" t="n">
-        <v>1662</v>
+        <v>1796</v>
       </c>
       <c r="W80" t="n">
-        <v>1629</v>
+        <v>2121</v>
       </c>
       <c r="X80" t="n">
-        <v>1796</v>
+        <v>1970</v>
       </c>
       <c r="Y80" t="n">
-        <v>2121</v>
+        <v>2390</v>
       </c>
       <c r="Z80" t="n">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="AA80" t="n">
-        <v>2390</v>
+        <v>2638</v>
       </c>
       <c r="AB80" t="n">
-        <v>0</v>
+        <v>5771</v>
       </c>
       <c r="AC80" t="n">
-        <v>2638</v>
+        <v>3035</v>
       </c>
       <c r="AD80" t="n">
-        <v>5771</v>
+        <v>3361</v>
       </c>
       <c r="AE80" t="n">
-        <v>3035</v>
+        <v>3828</v>
       </c>
       <c r="AF80" t="n">
-        <v>3361</v>
+        <v>4017</v>
       </c>
       <c r="AG80" t="n">
-        <v>3828</v>
+        <v>3681</v>
       </c>
       <c r="AH80" t="n">
-        <v>4017</v>
+        <v>4151</v>
       </c>
       <c r="AI80" t="n">
-        <v>3681</v>
+        <v>3982</v>
       </c>
       <c r="AJ80" t="n">
-        <v>4151</v>
+        <v>3623</v>
       </c>
       <c r="AK80" t="n">
-        <v>3982</v>
+        <v>3270</v>
       </c>
       <c r="AL80" t="n">
-        <v>3623</v>
+        <v>2947</v>
       </c>
       <c r="AM80" t="n">
-        <v>3270</v>
+        <v>2252</v>
       </c>
       <c r="AN80" t="n">
-        <v>2947</v>
+        <v>2050</v>
       </c>
       <c r="AO80" t="n">
-        <v>2252</v>
+        <v>2009</v>
       </c>
       <c r="AP80" t="n">
-        <v>2050</v>
+        <v>2081</v>
       </c>
       <c r="AQ80" t="n">
-        <v>2009</v>
+        <v>4402</v>
       </c>
       <c r="AR80" t="n">
-        <v>2081</v>
+        <v>2146</v>
       </c>
       <c r="AS80" t="n">
-        <v>4402</v>
+        <v>1987</v>
       </c>
       <c r="AT80" t="n">
-        <v>2146</v>
+        <v>1921</v>
       </c>
       <c r="AU80" t="n">
-        <v>1987</v>
+        <v>1711</v>
       </c>
       <c r="AV80" t="n">
-        <v>1921</v>
+        <v>1140</v>
       </c>
       <c r="AW80" t="n">
-        <v>1711</v>
+        <v>976</v>
       </c>
       <c r="AX80" t="n">
-        <v>1140</v>
+        <v>664</v>
       </c>
       <c r="AY80" t="n">
-        <v>976</v>
+        <v>621</v>
       </c>
       <c r="AZ80" t="n">
-        <v>664</v>
+        <v>605</v>
       </c>
       <c r="BA80" t="n">
-        <v>621</v>
-      </c>
-      <c r="BB80" t="n">
-        <v>605</v>
-      </c>
-      <c r="BC80" t="n">
         <v>1022</v>
       </c>
+      <c r="BB80" t="inlineStr"/>
+      <c r="BC80" t="inlineStr"/>
       <c r="BD80" t="inlineStr"/>
       <c r="BE80" t="inlineStr"/>
       <c r="BF80" t="inlineStr"/>
       <c r="BG80" t="inlineStr"/>
       <c r="BH80" t="inlineStr"/>
       <c r="BI80" t="inlineStr"/>
-      <c r="BJ80" t="inlineStr"/>
-      <c r="BK80" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
